--- a/raw_data/20200818_saline/20200818_Sensor3_Test_58.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_58.xlsx
@@ -1,508 +1,924 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FB0A2C-EFC6-4346-821D-683F8B5816F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>51854.114480</v>
+        <v>51854.114479999997</v>
       </c>
       <c r="B2" s="1">
         <v>14.403921</v>
       </c>
       <c r="C2" s="1">
-        <v>1141.510000</v>
+        <v>1141.51</v>
       </c>
       <c r="D2" s="1">
-        <v>-234.759000</v>
+        <v>-234.75899999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>51864.502196</v>
+        <v>51864.502196000001</v>
       </c>
       <c r="G2" s="1">
         <v>14.406806</v>
       </c>
       <c r="H2" s="1">
-        <v>1161.660000</v>
+        <v>1161.6600000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-200.028000</v>
+        <v>-200.02799999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>51874.961335</v>
@@ -511,300 +927,300 @@
         <v>14.409711</v>
       </c>
       <c r="M2" s="1">
-        <v>1189.570000</v>
+        <v>1189.57</v>
       </c>
       <c r="N2" s="1">
-        <v>-144.174000</v>
+        <v>-144.17400000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>51885.476520</v>
+        <v>51885.476519999997</v>
       </c>
       <c r="Q2" s="1">
         <v>14.412632</v>
       </c>
       <c r="R2" s="1">
-        <v>1198.330000</v>
+        <v>1198.33</v>
       </c>
       <c r="S2" s="1">
-        <v>-124.431000</v>
+        <v>-124.431</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>51896.366680</v>
+        <v>51896.366679999999</v>
       </c>
       <c r="V2" s="1">
-        <v>14.415657</v>
+        <v>14.415656999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1206.810000</v>
+        <v>1206.81</v>
       </c>
       <c r="X2" s="1">
-        <v>-105.634000</v>
+        <v>-105.634</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>51906.564923</v>
+        <v>51906.564922999998</v>
       </c>
       <c r="AA2" s="1">
-        <v>14.418490</v>
+        <v>14.41849</v>
       </c>
       <c r="AB2" s="1">
-        <v>1215.780000</v>
+        <v>1215.78</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.800700</v>
+        <v>-89.800700000000006</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>51916.831150</v>
+        <v>51916.831149999998</v>
       </c>
       <c r="AF2" s="1">
-        <v>14.421342</v>
+        <v>14.421341999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1220.820000</v>
+        <v>1220.82</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.876200</v>
+        <v>-85.876199999999997</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>51926.911312</v>
+        <v>51926.911311999997</v>
       </c>
       <c r="AK2" s="1">
         <v>14.424142</v>
       </c>
       <c r="AL2" s="1">
-        <v>1228.350000</v>
+        <v>1228.3499999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.704700</v>
+        <v>-89.704700000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>51937.173043</v>
+        <v>51937.173043000003</v>
       </c>
       <c r="AP2" s="1">
         <v>14.426993</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1236.510000</v>
+        <v>1236.51</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.988000</v>
+        <v>-101.988</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>51947.830116</v>
+        <v>51947.830115999997</v>
       </c>
       <c r="AU2" s="1">
-        <v>14.429953</v>
+        <v>14.429952999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1246.640000</v>
+        <v>1246.6400000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.659000</v>
+        <v>-121.65900000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>51958.924103</v>
+        <v>51958.924102999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>14.433034</v>
+        <v>14.433033999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1255.230000</v>
+        <v>1255.23</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.381000</v>
+        <v>-139.381</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>51969.859401</v>
+        <v>51969.859401000002</v>
       </c>
       <c r="BE2" s="1">
-        <v>14.436072</v>
+        <v>14.436071999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1295.780000</v>
+        <v>1295.78</v>
       </c>
       <c r="BG2" s="1">
-        <v>-222.223000</v>
+        <v>-222.22300000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>51980.887946</v>
+        <v>51980.887946000003</v>
       </c>
       <c r="BJ2" s="1">
         <v>14.439136</v>
       </c>
       <c r="BK2" s="1">
-        <v>1366.170000</v>
+        <v>1366.17</v>
       </c>
       <c r="BL2" s="1">
-        <v>-359.965000</v>
+        <v>-359.96499999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>51991.957658</v>
+        <v>51991.957657999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>14.442210</v>
+        <v>14.442209999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1481.870000</v>
+        <v>1481.87</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-584.008000</v>
+        <v>-584.00800000000004</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>52002.303246</v>
+        <v>52002.303246000003</v>
       </c>
       <c r="BT2" s="1">
         <v>14.445084</v>
       </c>
       <c r="BU2" s="1">
-        <v>1615.310000</v>
+        <v>1615.31</v>
       </c>
       <c r="BV2" s="1">
-        <v>-837.271000</v>
+        <v>-837.27099999999996</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>52012.931983</v>
+        <v>52012.931983000002</v>
       </c>
       <c r="BY2" s="1">
-        <v>14.448037</v>
+        <v>14.448036999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1769.340000</v>
+        <v>1769.34</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1111.300000</v>
+        <v>-1111.3</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>52024.218978</v>
+        <v>52024.218977999997</v>
       </c>
       <c r="CD2" s="1">
         <v>14.451172</v>
       </c>
       <c r="CE2" s="1">
-        <v>2193.500000</v>
+        <v>2193.5</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1775.090000</v>
+        <v>-1775.09</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>51854.479040</v>
+        <v>51854.479039999998</v>
       </c>
       <c r="B3" s="1">
-        <v>14.404022</v>
+        <v>14.404021999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1141.530000</v>
+        <v>1141.53</v>
       </c>
       <c r="D3" s="1">
-        <v>-234.777000</v>
+        <v>-234.77699999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>51864.874230</v>
+        <v>51864.874230000001</v>
       </c>
       <c r="G3" s="1">
-        <v>14.406910</v>
+        <v>14.40691</v>
       </c>
       <c r="H3" s="1">
-        <v>1161.770000</v>
+        <v>1161.77</v>
       </c>
       <c r="I3" s="1">
-        <v>-200.783000</v>
+        <v>-200.78299999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>51875.661226</v>
+        <v>51875.661225999997</v>
       </c>
       <c r="L3" s="1">
-        <v>14.409906</v>
+        <v>14.409905999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1189.820000</v>
+        <v>1189.82</v>
       </c>
       <c r="N3" s="1">
-        <v>-144.120000</v>
+        <v>-144.12</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>51886.181374</v>
       </c>
       <c r="Q3" s="1">
-        <v>14.412828</v>
+        <v>14.412827999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1198.460000</v>
+        <v>1198.46</v>
       </c>
       <c r="S3" s="1">
-        <v>-124.455000</v>
+        <v>-124.455</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>51896.769960</v>
+        <v>51896.769959999998</v>
       </c>
       <c r="V3" s="1">
-        <v>14.415769</v>
+        <v>14.415768999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1207.110000</v>
+        <v>1207.1099999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-105.506000</v>
+        <v>-105.506</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>51906.913642</v>
@@ -813,133 +1229,133 @@
         <v>14.418587</v>
       </c>
       <c r="AB3" s="1">
-        <v>1215.750000</v>
+        <v>1215.75</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.854100</v>
+        <v>-89.854100000000003</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>51917.187741</v>
+        <v>51917.187741000002</v>
       </c>
       <c r="AF3" s="1">
         <v>14.421441</v>
       </c>
       <c r="AG3" s="1">
-        <v>1220.820000</v>
+        <v>1220.82</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.901500</v>
+        <v>-85.901499999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>51927.295712</v>
+        <v>51927.295711999999</v>
       </c>
       <c r="AK3" s="1">
         <v>14.424249</v>
       </c>
       <c r="AL3" s="1">
-        <v>1228.350000</v>
+        <v>1228.3499999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.684500</v>
+        <v>-89.6845</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>51937.564426</v>
+        <v>51937.564425999997</v>
       </c>
       <c r="AP3" s="1">
         <v>14.427101</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1236.480000</v>
+        <v>1236.48</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.998000</v>
+        <v>-101.998</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>51948.251684</v>
+        <v>51948.251684000003</v>
       </c>
       <c r="AU3" s="1">
-        <v>14.430070</v>
+        <v>14.430070000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1246.640000</v>
+        <v>1246.6400000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.637000</v>
+        <v>-121.637</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>51959.340741</v>
       </c>
       <c r="AZ3" s="1">
-        <v>14.433150</v>
+        <v>14.433149999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1255.180000</v>
+        <v>1255.18</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.353000</v>
+        <v>-139.35300000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>51970.292935</v>
+        <v>51970.292934999998</v>
       </c>
       <c r="BE3" s="1">
         <v>14.436192</v>
       </c>
       <c r="BF3" s="1">
-        <v>1295.790000</v>
+        <v>1295.79</v>
       </c>
       <c r="BG3" s="1">
-        <v>-222.222000</v>
+        <v>-222.22200000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>51981.268873</v>
+        <v>51981.268873000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>14.439241</v>
+        <v>14.439241000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1366.210000</v>
+        <v>1366.21</v>
       </c>
       <c r="BL3" s="1">
-        <v>-359.983000</v>
+        <v>-359.983</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>51992.391659</v>
+        <v>51992.391659000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>14.442331</v>
+        <v>14.442330999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1481.780000</v>
+        <v>1481.78</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-584.018000</v>
+        <v>-584.01800000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>52002.768956</v>
@@ -948,482 +1364,482 @@
         <v>14.445214</v>
       </c>
       <c r="BU3" s="1">
-        <v>1615.430000</v>
+        <v>1615.43</v>
       </c>
       <c r="BV3" s="1">
-        <v>-837.178000</v>
+        <v>-837.178</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>52013.403222</v>
+        <v>52013.403222000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>14.448168</v>
+        <v>14.448168000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1769.240000</v>
+        <v>1769.24</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1111.340000</v>
+        <v>-1111.3399999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>52024.787856</v>
+        <v>52024.787856000003</v>
       </c>
       <c r="CD3" s="1">
-        <v>14.451330</v>
+        <v>14.45133</v>
       </c>
       <c r="CE3" s="1">
-        <v>2192.690000</v>
+        <v>2192.69</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1775.960000</v>
+        <v>-1775.96</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>51855.142191</v>
+        <v>51855.142190999999</v>
       </c>
       <c r="B4" s="1">
         <v>14.404206</v>
       </c>
       <c r="C4" s="1">
-        <v>1141.570000</v>
+        <v>1141.57</v>
       </c>
       <c r="D4" s="1">
-        <v>-234.753000</v>
+        <v>-234.75299999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>51865.528455</v>
       </c>
       <c r="G4" s="1">
-        <v>14.407091</v>
+        <v>14.407090999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1161.290000</v>
+        <v>1161.29</v>
       </c>
       <c r="I4" s="1">
-        <v>-200.716000</v>
+        <v>-200.71600000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>51876.035667</v>
+        <v>51876.035666999996</v>
       </c>
       <c r="L4" s="1">
-        <v>14.410010</v>
+        <v>14.41001</v>
       </c>
       <c r="M4" s="1">
-        <v>1189.510000</v>
+        <v>1189.51</v>
       </c>
       <c r="N4" s="1">
-        <v>-144.186000</v>
+        <v>-144.18600000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>51886.562296</v>
+        <v>51886.562295999996</v>
       </c>
       <c r="Q4" s="1">
         <v>14.412934</v>
       </c>
       <c r="R4" s="1">
-        <v>1198.480000</v>
+        <v>1198.48</v>
       </c>
       <c r="S4" s="1">
-        <v>-124.498000</v>
+        <v>-124.498</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>51897.111671</v>
+        <v>51897.111670999999</v>
       </c>
       <c r="V4" s="1">
-        <v>14.415864</v>
+        <v>14.415863999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1206.920000</v>
+        <v>1206.92</v>
       </c>
       <c r="X4" s="1">
-        <v>-105.659000</v>
+        <v>-105.65900000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>51907.262794</v>
+        <v>51907.262794000002</v>
       </c>
       <c r="AA4" s="1">
-        <v>14.418684</v>
+        <v>14.418684000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>1215.710000</v>
+        <v>1215.71</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.865300</v>
+        <v>-89.865300000000005</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>51917.529519</v>
+        <v>51917.529519000003</v>
       </c>
       <c r="AF4" s="1">
         <v>14.421536</v>
       </c>
       <c r="AG4" s="1">
-        <v>1220.870000</v>
+        <v>1220.8699999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.864100</v>
+        <v>-85.864099999999993</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>51927.734708</v>
+        <v>51927.734708000004</v>
       </c>
       <c r="AK4" s="1">
-        <v>14.424371</v>
+        <v>14.424371000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1228.320000</v>
+        <v>1228.32</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.706500</v>
+        <v>-89.706500000000005</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>51937.988467</v>
+        <v>51937.988467000003</v>
       </c>
       <c r="AP4" s="1">
-        <v>14.427219</v>
+        <v>14.427218999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1236.500000</v>
+        <v>1236.5</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.998000</v>
+        <v>-101.998</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>51948.585008</v>
+        <v>51948.585008000002</v>
       </c>
       <c r="AU4" s="1">
         <v>14.430163</v>
       </c>
       <c r="AV4" s="1">
-        <v>1246.650000</v>
+        <v>1246.6500000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.644000</v>
+        <v>-121.64400000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>51959.694901</v>
+        <v>51959.694901000003</v>
       </c>
       <c r="AZ4" s="1">
         <v>14.433249</v>
       </c>
       <c r="BA4" s="1">
-        <v>1255.210000</v>
+        <v>1255.21</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.345000</v>
+        <v>-139.345</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>51970.655976</v>
+        <v>51970.655976000002</v>
       </c>
       <c r="BE4" s="1">
-        <v>14.436293</v>
+        <v>14.436292999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1295.760000</v>
+        <v>1295.76</v>
       </c>
       <c r="BG4" s="1">
-        <v>-222.239000</v>
+        <v>-222.239</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>51981.641865</v>
+        <v>51981.641864999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>14.439345</v>
+        <v>14.439344999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1366.180000</v>
+        <v>1366.18</v>
       </c>
       <c r="BL4" s="1">
-        <v>-360.000000</v>
+        <v>-360</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>51992.810814</v>
+        <v>51992.810813999997</v>
       </c>
       <c r="BO4" s="1">
         <v>14.442447</v>
       </c>
       <c r="BP4" s="1">
-        <v>1481.850000</v>
+        <v>1481.85</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-584.039000</v>
+        <v>-584.03899999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>52003.202459</v>
       </c>
       <c r="BT4" s="1">
-        <v>14.445334</v>
+        <v>14.445334000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1615.490000</v>
+        <v>1615.49</v>
       </c>
       <c r="BV4" s="1">
-        <v>-837.307000</v>
+        <v>-837.30700000000002</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>52013.835231</v>
+        <v>52013.835230999997</v>
       </c>
       <c r="BY4" s="1">
         <v>14.448288</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1769.190000</v>
+        <v>1769.19</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1111.450000</v>
+        <v>-1111.45</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>52025.304686</v>
+        <v>52025.304686000003</v>
       </c>
       <c r="CD4" s="1">
-        <v>14.451474</v>
+        <v>14.451473999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>2191.410000</v>
+        <v>2191.41</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1774.970000</v>
+        <v>-1774.97</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>51855.506258</v>
+        <v>51855.506258000001</v>
       </c>
       <c r="B5" s="1">
-        <v>14.404307</v>
+        <v>14.404306999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1141.490000</v>
+        <v>1141.49</v>
       </c>
       <c r="D5" s="1">
-        <v>-234.638000</v>
+        <v>-234.63800000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>51865.906402</v>
+        <v>51865.906402000001</v>
       </c>
       <c r="G5" s="1">
-        <v>14.407196</v>
+        <v>14.407196000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1161.130000</v>
+        <v>1161.1300000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-200.573000</v>
+        <v>-200.57300000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>51876.380386</v>
+        <v>51876.380385999997</v>
       </c>
       <c r="L5" s="1">
-        <v>14.410106</v>
+        <v>14.410106000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1189.660000</v>
+        <v>1189.6600000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-144.200000</v>
+        <v>-144.19999999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>51886.910951</v>
+        <v>51886.910950999998</v>
       </c>
       <c r="Q5" s="1">
         <v>14.413031</v>
       </c>
       <c r="R5" s="1">
-        <v>1198.440000</v>
+        <v>1198.44</v>
       </c>
       <c r="S5" s="1">
-        <v>-124.567000</v>
+        <v>-124.56699999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>51897.456392</v>
       </c>
       <c r="V5" s="1">
-        <v>14.415960</v>
+        <v>14.41596</v>
       </c>
       <c r="W5" s="1">
-        <v>1206.990000</v>
+        <v>1206.99</v>
       </c>
       <c r="X5" s="1">
-        <v>-105.494000</v>
+        <v>-105.494</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>51907.672869</v>
+        <v>51907.672869000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>14.418798</v>
+        <v>14.418798000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1215.640000</v>
+        <v>1215.6400000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.867700</v>
+        <v>-89.867699999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>51917.956045</v>
+        <v>51917.956044999999</v>
       </c>
       <c r="AF5" s="1">
         <v>14.421654</v>
       </c>
       <c r="AG5" s="1">
-        <v>1220.780000</v>
+        <v>1220.78</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.875700</v>
+        <v>-85.875699999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>51928.014415</v>
+        <v>51928.014414999998</v>
       </c>
       <c r="AK5" s="1">
         <v>14.424448</v>
       </c>
       <c r="AL5" s="1">
-        <v>1228.330000</v>
+        <v>1228.33</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.730200</v>
+        <v>-89.730199999999996</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>51938.287568</v>
       </c>
       <c r="AP5" s="1">
-        <v>14.427302</v>
+        <v>14.427301999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1236.500000</v>
+        <v>1236.5</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.957000</v>
+        <v>-101.95699999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>51948.950584</v>
+        <v>51948.950583999998</v>
       </c>
       <c r="AU5" s="1">
-        <v>14.430264</v>
+        <v>14.430263999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1246.670000</v>
+        <v>1246.67</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.634000</v>
+        <v>-121.634</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>51960.056005</v>
+        <v>51960.056004999999</v>
       </c>
       <c r="AZ5" s="1">
         <v>14.433349</v>
       </c>
       <c r="BA5" s="1">
-        <v>1255.230000</v>
+        <v>1255.23</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.357000</v>
+        <v>-139.357</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>51971.018551</v>
+        <v>51971.018551000001</v>
       </c>
       <c r="BE5" s="1">
         <v>14.436394</v>
       </c>
       <c r="BF5" s="1">
-        <v>1295.780000</v>
+        <v>1295.78</v>
       </c>
       <c r="BG5" s="1">
-        <v>-222.212000</v>
+        <v>-222.21199999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>51982.391355</v>
@@ -1432,28 +1848,28 @@
         <v>14.439553</v>
       </c>
       <c r="BK5" s="1">
-        <v>1366.150000</v>
+        <v>1366.15</v>
       </c>
       <c r="BL5" s="1">
-        <v>-359.981000</v>
+        <v>-359.98099999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>51993.207577</v>
+        <v>51993.207577000001</v>
       </c>
       <c r="BO5" s="1">
         <v>14.442558</v>
       </c>
       <c r="BP5" s="1">
-        <v>1481.820000</v>
+        <v>1481.82</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-584.040000</v>
+        <v>-584.04</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>52003.616123</v>
@@ -1462,75 +1878,75 @@
         <v>14.445449</v>
       </c>
       <c r="BU5" s="1">
-        <v>1615.600000</v>
+        <v>1615.6</v>
       </c>
       <c r="BV5" s="1">
-        <v>-837.280000</v>
+        <v>-837.28</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>52014.256829</v>
+        <v>52014.256828999998</v>
       </c>
       <c r="BY5" s="1">
-        <v>14.448405</v>
+        <v>14.448404999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1769.120000</v>
+        <v>1769.12</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1111.260000</v>
+        <v>-1111.26</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>52026.124582</v>
+        <v>52026.124581999997</v>
       </c>
       <c r="CD5" s="1">
         <v>14.451701</v>
       </c>
       <c r="CE5" s="1">
-        <v>2190.990000</v>
+        <v>2190.9899999999998</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1777.100000</v>
+        <v>-1777.1</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>51855.849027</v>
+        <v>51855.849026999997</v>
       </c>
       <c r="B6" s="1">
         <v>14.404403</v>
       </c>
       <c r="C6" s="1">
-        <v>1141.270000</v>
+        <v>1141.27</v>
       </c>
       <c r="D6" s="1">
-        <v>-234.690000</v>
+        <v>-234.69</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>51866.255553</v>
+        <v>51866.255553000003</v>
       </c>
       <c r="G6" s="1">
-        <v>14.407293</v>
+        <v>14.407292999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1161.600000</v>
+        <v>1161.5999999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-200.658000</v>
+        <v>-200.65799999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>51876.726594</v>
@@ -1539,330 +1955,330 @@
         <v>14.410202</v>
       </c>
       <c r="M6" s="1">
-        <v>1189.620000</v>
+        <v>1189.6199999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-144.124000</v>
+        <v>-144.124</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>51887.514580</v>
+        <v>51887.514580000003</v>
       </c>
       <c r="Q6" s="1">
         <v>14.413198</v>
       </c>
       <c r="R6" s="1">
-        <v>1198.450000</v>
+        <v>1198.45</v>
       </c>
       <c r="S6" s="1">
-        <v>-124.513000</v>
+        <v>-124.51300000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>51897.868106</v>
+        <v>51897.868106000002</v>
       </c>
       <c r="V6" s="1">
         <v>14.416074</v>
       </c>
       <c r="W6" s="1">
-        <v>1206.880000</v>
+        <v>1206.8800000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-105.588000</v>
+        <v>-105.58799999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>51907.959710</v>
+        <v>51907.959710000003</v>
       </c>
       <c r="AA6" s="1">
-        <v>14.418878</v>
+        <v>14.418877999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1215.650000</v>
+        <v>1215.6500000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.922000</v>
+        <v>-89.921999999999997</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>51918.227851</v>
+        <v>51918.227851000003</v>
       </c>
       <c r="AF6" s="1">
-        <v>14.421730</v>
+        <v>14.42173</v>
       </c>
       <c r="AG6" s="1">
-        <v>1220.770000</v>
+        <v>1220.77</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.915000</v>
+        <v>-85.915000000000006</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>51928.361647</v>
+        <v>51928.361646999998</v>
       </c>
       <c r="AK6" s="1">
         <v>14.424545</v>
       </c>
       <c r="AL6" s="1">
-        <v>1228.320000</v>
+        <v>1228.32</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.728000</v>
+        <v>-89.727999999999994</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>51938.645666</v>
+        <v>51938.645665999997</v>
       </c>
       <c r="AP6" s="1">
-        <v>14.427402</v>
+        <v>14.427402000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1236.480000</v>
+        <v>1236.48</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.987000</v>
+        <v>-101.98699999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>51949.316098</v>
+        <v>51949.316098000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>14.430366</v>
+        <v>14.430365999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1246.650000</v>
+        <v>1246.6500000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.637000</v>
+        <v>-121.637</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>51960.775171</v>
+        <v>51960.775171000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>14.433549</v>
+        <v>14.433548999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1255.210000</v>
+        <v>1255.21</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.373000</v>
+        <v>-139.37299999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>51971.758085</v>
+        <v>51971.758085000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>14.436599</v>
+        <v>14.436598999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1295.760000</v>
+        <v>1295.76</v>
       </c>
       <c r="BG6" s="1">
-        <v>-222.257000</v>
+        <v>-222.25700000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>51982.768774</v>
+        <v>51982.768773999996</v>
       </c>
       <c r="BJ6" s="1">
         <v>14.439658</v>
       </c>
       <c r="BK6" s="1">
-        <v>1366.210000</v>
+        <v>1366.21</v>
       </c>
       <c r="BL6" s="1">
-        <v>-359.989000</v>
+        <v>-359.98899999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>51993.631847</v>
+        <v>51993.631846999997</v>
       </c>
       <c r="BO6" s="1">
-        <v>14.442676</v>
+        <v>14.442676000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1481.840000</v>
+        <v>1481.84</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-583.967000</v>
+        <v>-583.96699999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>52004.044698</v>
+        <v>52004.044697999998</v>
       </c>
       <c r="BT6" s="1">
         <v>14.445568</v>
       </c>
       <c r="BU6" s="1">
-        <v>1615.640000</v>
+        <v>1615.64</v>
       </c>
       <c r="BV6" s="1">
-        <v>-837.217000</v>
+        <v>-837.21699999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>52014.990418</v>
+        <v>52014.990418000001</v>
       </c>
       <c r="BY6" s="1">
         <v>14.448608</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1769.240000</v>
+        <v>1769.24</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1111.510000</v>
+        <v>-1111.51</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>52026.341325</v>
+        <v>52026.341325000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>14.451761</v>
+        <v>14.451760999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>2192.800000</v>
+        <v>2192.8000000000002</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1776.810000</v>
+        <v>-1776.81</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>51856.196189</v>
+        <v>51856.196189000002</v>
       </c>
       <c r="B7" s="1">
-        <v>14.404499</v>
+        <v>14.404498999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1141.350000</v>
+        <v>1141.3499999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-235.043000</v>
+        <v>-235.04300000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>51866.598816</v>
+        <v>51866.598815999998</v>
       </c>
       <c r="G7" s="1">
         <v>14.407389</v>
       </c>
       <c r="H7" s="1">
-        <v>1161.170000</v>
+        <v>1161.17</v>
       </c>
       <c r="I7" s="1">
-        <v>-200.419000</v>
+        <v>-200.41900000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>51877.141761</v>
+        <v>51877.141760999999</v>
       </c>
       <c r="L7" s="1">
-        <v>14.410317</v>
+        <v>14.410316999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1189.740000</v>
+        <v>1189.74</v>
       </c>
       <c r="N7" s="1">
-        <v>-143.988000</v>
+        <v>-143.988</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>51887.625194</v>
       </c>
       <c r="Q7" s="1">
-        <v>14.413229</v>
+        <v>14.413228999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1198.400000</v>
+        <v>1198.4000000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-124.505000</v>
+        <v>-124.505</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>51898.145831</v>
+        <v>51898.145831000002</v>
       </c>
       <c r="V7" s="1">
         <v>14.416152</v>
       </c>
       <c r="W7" s="1">
-        <v>1206.950000</v>
+        <v>1206.95</v>
       </c>
       <c r="X7" s="1">
-        <v>-105.428000</v>
+        <v>-105.428</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>51908.310874</v>
+        <v>51908.310874000003</v>
       </c>
       <c r="AA7" s="1">
         <v>14.418975</v>
       </c>
       <c r="AB7" s="1">
-        <v>1215.680000</v>
+        <v>1215.68</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.819300</v>
+        <v>-89.819299999999998</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>51918.571083</v>
+        <v>51918.571083000003</v>
       </c>
       <c r="AF7" s="1">
         <v>14.421825</v>
       </c>
       <c r="AG7" s="1">
-        <v>1220.890000</v>
+        <v>1220.8900000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.876000</v>
+        <v>-85.876000000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>51928.710799</v>
@@ -1871,73 +2287,73 @@
         <v>14.424642</v>
       </c>
       <c r="AL7" s="1">
-        <v>1228.310000</v>
+        <v>1228.31</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.702400</v>
+        <v>-89.702399999999997</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>51939.362416</v>
+        <v>51939.362416000004</v>
       </c>
       <c r="AP7" s="1">
-        <v>14.427601</v>
+        <v>14.427600999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1236.510000</v>
+        <v>1236.51</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.990000</v>
+        <v>-101.99</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>51950.044722</v>
+        <v>51950.044721999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>14.430568</v>
+        <v>14.430567999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1246.670000</v>
+        <v>1246.67</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.664000</v>
+        <v>-121.664</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>51961.164035</v>
+        <v>51961.164035000002</v>
       </c>
       <c r="AZ7" s="1">
         <v>14.433657</v>
       </c>
       <c r="BA7" s="1">
-        <v>1255.220000</v>
+        <v>1255.22</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.362000</v>
+        <v>-139.36199999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>51972.098836</v>
+        <v>51972.098835999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>14.436694</v>
+        <v>14.436693999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1295.780000</v>
+        <v>1295.78</v>
       </c>
       <c r="BG7" s="1">
-        <v>-222.247000</v>
+        <v>-222.24700000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>51983.144278</v>
@@ -1946,512 +2362,512 @@
         <v>14.439762</v>
       </c>
       <c r="BK7" s="1">
-        <v>1366.180000</v>
+        <v>1366.18</v>
       </c>
       <c r="BL7" s="1">
-        <v>-359.970000</v>
+        <v>-359.97</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>51994.336471</v>
+        <v>51994.336471000002</v>
       </c>
       <c r="BO7" s="1">
         <v>14.442871</v>
       </c>
       <c r="BP7" s="1">
-        <v>1481.800000</v>
+        <v>1481.8</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-584.075000</v>
+        <v>-584.07500000000005</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>52004.788665</v>
       </c>
       <c r="BT7" s="1">
-        <v>14.445775</v>
+        <v>14.445774999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1615.640000</v>
+        <v>1615.64</v>
       </c>
       <c r="BV7" s="1">
-        <v>-837.063000</v>
+        <v>-837.06299999999999</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>52015.105947</v>
+        <v>52015.105946999996</v>
       </c>
       <c r="BY7" s="1">
         <v>14.448641</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1769.190000</v>
+        <v>1769.19</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1111.520000</v>
+        <v>-1111.52</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>52026.860141</v>
+        <v>52026.860140999997</v>
       </c>
       <c r="CD7" s="1">
-        <v>14.451906</v>
+        <v>14.451905999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>2193.130000</v>
+        <v>2193.13</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1776.000000</v>
+        <v>-1776</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>51856.627237</v>
+        <v>51856.627237000001</v>
       </c>
       <c r="B8" s="1">
         <v>14.404619</v>
       </c>
       <c r="C8" s="1">
-        <v>1141.480000</v>
+        <v>1141.48</v>
       </c>
       <c r="D8" s="1">
-        <v>-234.938000</v>
+        <v>-234.93799999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>51867.020383</v>
+        <v>51867.020383000003</v>
       </c>
       <c r="G8" s="1">
         <v>14.407506</v>
       </c>
       <c r="H8" s="1">
-        <v>1161.090000</v>
+        <v>1161.0899999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-200.383000</v>
+        <v>-200.38300000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>51877.438387</v>
+        <v>51877.438387000002</v>
       </c>
       <c r="L8" s="1">
-        <v>14.410400</v>
+        <v>14.410399999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1189.540000</v>
+        <v>1189.54</v>
       </c>
       <c r="N8" s="1">
-        <v>-143.982000</v>
+        <v>-143.982</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>51887.956019</v>
+        <v>51887.956018999997</v>
       </c>
       <c r="Q8" s="1">
         <v>14.413321</v>
       </c>
       <c r="R8" s="1">
-        <v>1198.410000</v>
+        <v>1198.4100000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-124.432000</v>
+        <v>-124.432</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>51898.492037</v>
+        <v>51898.492037000004</v>
       </c>
       <c r="V8" s="1">
         <v>14.416248</v>
       </c>
       <c r="W8" s="1">
-        <v>1206.920000</v>
+        <v>1206.92</v>
       </c>
       <c r="X8" s="1">
-        <v>-105.526000</v>
+        <v>-105.526</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>51908.661052</v>
+        <v>51908.661052000003</v>
       </c>
       <c r="AA8" s="1">
-        <v>14.419073</v>
+        <v>14.419072999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1215.770000</v>
+        <v>1215.77</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.877700</v>
+        <v>-89.877700000000004</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>51918.914810</v>
+        <v>51918.914810000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>14.421921</v>
+        <v>14.421920999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1220.810000</v>
+        <v>1220.81</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.945500</v>
+        <v>-85.945499999999996</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>51929.409697</v>
+        <v>51929.409697000003</v>
       </c>
       <c r="AK8" s="1">
-        <v>14.424836</v>
+        <v>14.424836000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1228.320000</v>
+        <v>1228.32</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.701000</v>
+        <v>-89.700999999999993</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>51939.754223</v>
+        <v>51939.754223000004</v>
       </c>
       <c r="AP8" s="1">
-        <v>14.427710</v>
+        <v>14.427709999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1236.500000</v>
+        <v>1236.5</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.951000</v>
+        <v>-101.95099999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>51950.428625</v>
       </c>
       <c r="AU8" s="1">
-        <v>14.430675</v>
+        <v>14.430675000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1246.650000</v>
+        <v>1246.6500000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.638000</v>
+        <v>-121.63800000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>51961.521154</v>
+        <v>51961.521154000002</v>
       </c>
       <c r="AZ8" s="1">
-        <v>14.433756</v>
+        <v>14.433756000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1255.230000</v>
+        <v>1255.23</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.355000</v>
+        <v>-139.35499999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>51972.765957</v>
+        <v>51972.765957000003</v>
       </c>
       <c r="BE8" s="1">
-        <v>14.436879</v>
+        <v>14.436878999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1295.800000</v>
+        <v>1295.8</v>
       </c>
       <c r="BG8" s="1">
-        <v>-222.234000</v>
+        <v>-222.23400000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>51983.825750</v>
+        <v>51983.825750000004</v>
       </c>
       <c r="BJ8" s="1">
         <v>14.439952</v>
       </c>
       <c r="BK8" s="1">
-        <v>1366.170000</v>
+        <v>1366.17</v>
       </c>
       <c r="BL8" s="1">
-        <v>-360.006000</v>
+        <v>-360.00599999999997</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>51994.444102</v>
+        <v>51994.444102000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>14.442901</v>
+        <v>14.442901000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1481.810000</v>
+        <v>1481.81</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-584.091000</v>
+        <v>-584.09100000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>52004.919610</v>
+        <v>52004.919609999997</v>
       </c>
       <c r="BT8" s="1">
-        <v>14.445811</v>
+        <v>14.445811000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1615.810000</v>
+        <v>1615.81</v>
       </c>
       <c r="BV8" s="1">
-        <v>-837.026000</v>
+        <v>-837.02599999999995</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>52015.553339</v>
+        <v>52015.553338999998</v>
       </c>
       <c r="BY8" s="1">
         <v>14.448765</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1769.430000</v>
+        <v>1769.43</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1111.300000</v>
+        <v>-1111.3</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>52027.408715</v>
+        <v>52027.408714999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>14.452058</v>
+        <v>14.452057999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>2192.110000</v>
+        <v>2192.11</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1777.170000</v>
+        <v>-1777.17</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>51856.898557</v>
       </c>
       <c r="B9" s="1">
-        <v>14.404694</v>
+        <v>14.404693999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1141.330000</v>
+        <v>1141.33</v>
       </c>
       <c r="D9" s="1">
-        <v>-234.591000</v>
+        <v>-234.59100000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>51867.292955</v>
+        <v>51867.292954999997</v>
       </c>
       <c r="G9" s="1">
         <v>14.407581</v>
       </c>
       <c r="H9" s="1">
-        <v>1161.360000</v>
+        <v>1161.3599999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-200.011000</v>
+        <v>-200.011</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>51877.782614</v>
+        <v>51877.782614000003</v>
       </c>
       <c r="L9" s="1">
-        <v>14.410495</v>
+        <v>14.410494999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1189.630000</v>
+        <v>1189.6300000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-144.010000</v>
+        <v>-144.01</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>51888.303747</v>
+        <v>51888.303746999998</v>
       </c>
       <c r="Q9" s="1">
         <v>14.413418</v>
       </c>
       <c r="R9" s="1">
-        <v>1198.500000</v>
+        <v>1198.5</v>
       </c>
       <c r="S9" s="1">
-        <v>-124.466000</v>
+        <v>-124.46599999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>51898.832293</v>
+        <v>51898.832292999999</v>
       </c>
       <c r="V9" s="1">
         <v>14.416342</v>
       </c>
       <c r="W9" s="1">
-        <v>1206.940000</v>
+        <v>1206.94</v>
       </c>
       <c r="X9" s="1">
-        <v>-105.543000</v>
+        <v>-105.54300000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>51909.357400</v>
+        <v>51909.357400000001</v>
       </c>
       <c r="AA9" s="1">
         <v>14.419266</v>
       </c>
       <c r="AB9" s="1">
-        <v>1215.700000</v>
+        <v>1215.7</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.918500</v>
+        <v>-89.918499999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>51919.603258</v>
+        <v>51919.603258000003</v>
       </c>
       <c r="AF9" s="1">
         <v>14.422112</v>
       </c>
       <c r="AG9" s="1">
-        <v>1220.910000</v>
+        <v>1220.9100000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.898400</v>
+        <v>-85.898399999999995</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>51929.757854</v>
+        <v>51929.757854000003</v>
       </c>
       <c r="AK9" s="1">
-        <v>14.424933</v>
+        <v>14.424932999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1228.350000</v>
+        <v>1228.3499999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.713800</v>
+        <v>-89.713800000000006</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>51940.133199</v>
+        <v>51940.133199000004</v>
       </c>
       <c r="AP9" s="1">
-        <v>14.427815</v>
+        <v>14.427815000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1236.500000</v>
+        <v>1236.5</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.011000</v>
+        <v>-102.011</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>51950.796160</v>
+        <v>51950.796159999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>14.430777</v>
+        <v>14.430777000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1246.630000</v>
+        <v>1246.6300000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.635000</v>
+        <v>-121.63500000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>51962.184628</v>
+        <v>51962.184628000003</v>
       </c>
       <c r="AZ9" s="1">
-        <v>14.433940</v>
+        <v>14.43394</v>
       </c>
       <c r="BA9" s="1">
-        <v>1255.240000</v>
+        <v>1255.24</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.365000</v>
+        <v>-139.36500000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>51973.206404</v>
+        <v>51973.206403999997</v>
       </c>
       <c r="BE9" s="1">
         <v>14.437002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1295.770000</v>
+        <v>1295.77</v>
       </c>
       <c r="BG9" s="1">
-        <v>-222.235000</v>
+        <v>-222.23500000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>51984.268676</v>
@@ -2460,195 +2876,195 @@
         <v>14.440075</v>
       </c>
       <c r="BK9" s="1">
-        <v>1366.190000</v>
+        <v>1366.19</v>
       </c>
       <c r="BL9" s="1">
-        <v>-359.977000</v>
+        <v>-359.97699999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>51994.872150</v>
+        <v>51994.872150000003</v>
       </c>
       <c r="BO9" s="1">
-        <v>14.443020</v>
+        <v>14.443020000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1481.820000</v>
+        <v>1481.82</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-583.997000</v>
+        <v>-583.99699999999996</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>52005.329801</v>
       </c>
       <c r="BT9" s="1">
-        <v>14.445925</v>
+        <v>14.445925000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1615.830000</v>
+        <v>1615.83</v>
       </c>
       <c r="BV9" s="1">
-        <v>-836.823000</v>
+        <v>-836.82299999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>52015.987339</v>
+        <v>52015.987338999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>14.448885</v>
+        <v>14.448885000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1769.290000</v>
+        <v>1769.29</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1111.440000</v>
+        <v>-1111.44</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>52027.936460</v>
+        <v>52027.936459999997</v>
       </c>
       <c r="CD9" s="1">
-        <v>14.452205</v>
+        <v>14.452204999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>2192.880000</v>
+        <v>2192.88</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1775.460000</v>
+        <v>-1775.46</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>51857.241757</v>
+        <v>51857.241757000003</v>
       </c>
       <c r="B10" s="1">
-        <v>14.404789</v>
+        <v>14.404788999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1141.450000</v>
+        <v>1141.45</v>
       </c>
       <c r="D10" s="1">
-        <v>-234.790000</v>
+        <v>-234.79</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>51867.636415</v>
+        <v>51867.636415000001</v>
       </c>
       <c r="G10" s="1">
         <v>14.407677</v>
       </c>
       <c r="H10" s="1">
-        <v>1161.490000</v>
+        <v>1161.49</v>
       </c>
       <c r="I10" s="1">
-        <v>-200.306000</v>
+        <v>-200.30600000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>51878.129318</v>
+        <v>51878.129317999999</v>
       </c>
       <c r="L10" s="1">
         <v>14.410591</v>
       </c>
       <c r="M10" s="1">
-        <v>1189.520000</v>
+        <v>1189.52</v>
       </c>
       <c r="N10" s="1">
-        <v>-144.003000</v>
+        <v>-144.00299999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>51889.000130</v>
+        <v>51889.00013</v>
       </c>
       <c r="Q10" s="1">
         <v>14.413611</v>
       </c>
       <c r="R10" s="1">
-        <v>1198.480000</v>
+        <v>1198.48</v>
       </c>
       <c r="S10" s="1">
-        <v>-124.549000</v>
+        <v>-124.54900000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>51899.517764</v>
+        <v>51899.517763999997</v>
       </c>
       <c r="V10" s="1">
-        <v>14.416533</v>
+        <v>14.416532999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1207.080000</v>
+        <v>1207.08</v>
       </c>
       <c r="X10" s="1">
-        <v>-105.639000</v>
+        <v>-105.639</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>51909.705860</v>
+        <v>51909.705860000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>14.419363</v>
+        <v>14.419363000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1215.740000</v>
+        <v>1215.74</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.887300</v>
+        <v>-89.887299999999996</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>51919.944010</v>
+        <v>51919.944009999999</v>
       </c>
       <c r="AF10" s="1">
         <v>14.422207</v>
       </c>
       <c r="AG10" s="1">
-        <v>1220.830000</v>
+        <v>1220.83</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.844400</v>
+        <v>-85.844399999999993</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>51930.110508</v>
+        <v>51930.110507999998</v>
       </c>
       <c r="AK10" s="1">
-        <v>14.425031</v>
+        <v>14.425031000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1228.360000</v>
+        <v>1228.3599999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.716200</v>
+        <v>-89.716200000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>51940.804784</v>
@@ -2657,1056 +3073,1056 @@
         <v>14.428001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1236.500000</v>
+        <v>1236.5</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.977000</v>
+        <v>-101.977</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>51951.461824</v>
+        <v>51951.461823999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>14.430962</v>
+        <v>14.430961999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1246.670000</v>
+        <v>1246.67</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.624000</v>
+        <v>-121.624</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>51962.630738</v>
       </c>
       <c r="AZ10" s="1">
-        <v>14.434064</v>
+        <v>14.434063999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1255.200000</v>
+        <v>1255.2</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.359000</v>
+        <v>-139.35900000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>51973.566996</v>
+        <v>51973.566996000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>14.437102</v>
+        <v>14.437101999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1295.770000</v>
+        <v>1295.77</v>
       </c>
       <c r="BG10" s="1">
-        <v>-222.214000</v>
+        <v>-222.214</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>51984.644184</v>
+        <v>51984.644183999997</v>
       </c>
       <c r="BJ10" s="1">
-        <v>14.440179</v>
+        <v>14.440179000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1366.220000</v>
+        <v>1366.22</v>
       </c>
       <c r="BL10" s="1">
-        <v>-359.937000</v>
+        <v>-359.93700000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>51995.268455</v>
+        <v>51995.268454999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>14.443130</v>
+        <v>14.44313</v>
       </c>
       <c r="BP10" s="1">
-        <v>1481.830000</v>
+        <v>1481.83</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-584.063000</v>
+        <v>-584.06299999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>52005.771768</v>
+        <v>52005.771767999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>14.446048</v>
+        <v>14.446047999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1615.850000</v>
+        <v>1615.85</v>
       </c>
       <c r="BV10" s="1">
-        <v>-836.839000</v>
+        <v>-836.83900000000006</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>52016.407981</v>
+        <v>52016.407980999997</v>
       </c>
       <c r="BY10" s="1">
         <v>14.449002</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1769.230000</v>
+        <v>1769.23</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1111.280000</v>
+        <v>-1111.28</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>52028.455802</v>
+        <v>52028.455801999997</v>
       </c>
       <c r="CD10" s="1">
         <v>14.452349</v>
       </c>
       <c r="CE10" s="1">
-        <v>2193.060000</v>
+        <v>2193.06</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1776.050000</v>
+        <v>-1776.05</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>51857.581056</v>
+        <v>51857.581056000003</v>
       </c>
       <c r="B11" s="1">
-        <v>14.404884</v>
+        <v>14.404883999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1141.430000</v>
+        <v>1141.43</v>
       </c>
       <c r="D11" s="1">
-        <v>-234.835000</v>
+        <v>-234.83500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>51867.983150</v>
+        <v>51867.98315</v>
       </c>
       <c r="G11" s="1">
-        <v>14.407773</v>
+        <v>14.407773000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1160.610000</v>
+        <v>1160.6099999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-200.433000</v>
+        <v>-200.43299999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>51878.820209</v>
+        <v>51878.820208999998</v>
       </c>
       <c r="L11" s="1">
         <v>14.410783</v>
       </c>
       <c r="M11" s="1">
-        <v>1189.460000</v>
+        <v>1189.46</v>
       </c>
       <c r="N11" s="1">
-        <v>-143.855000</v>
+        <v>-143.85499999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>51889.351793</v>
+        <v>51889.351793000002</v>
       </c>
       <c r="Q11" s="1">
-        <v>14.413709</v>
+        <v>14.413709000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1198.420000</v>
+        <v>1198.42</v>
       </c>
       <c r="S11" s="1">
-        <v>-124.533000</v>
+        <v>-124.533</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>51899.862024</v>
+        <v>51899.862024000002</v>
       </c>
       <c r="V11" s="1">
-        <v>14.416628</v>
+        <v>14.416627999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1207.030000</v>
+        <v>1207.03</v>
       </c>
       <c r="X11" s="1">
-        <v>-105.719000</v>
+        <v>-105.71899999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>51910.052326</v>
+        <v>51910.052325999997</v>
       </c>
       <c r="AA11" s="1">
         <v>14.419459</v>
       </c>
       <c r="AB11" s="1">
-        <v>1215.720000</v>
+        <v>1215.72</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.858500</v>
+        <v>-89.858500000000006</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>51920.288335</v>
+        <v>51920.288334999997</v>
       </c>
       <c r="AF11" s="1">
         <v>14.422302</v>
       </c>
       <c r="AG11" s="1">
-        <v>1220.860000</v>
+        <v>1220.8599999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.021900</v>
+        <v>-86.021900000000002</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>51930.771180</v>
+        <v>51930.771180000003</v>
       </c>
       <c r="AK11" s="1">
         <v>14.425214</v>
       </c>
       <c r="AL11" s="1">
-        <v>1228.330000</v>
+        <v>1228.33</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.698800</v>
+        <v>-89.698800000000006</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>51941.216429</v>
       </c>
       <c r="AP11" s="1">
-        <v>14.428116</v>
+        <v>14.428115999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1236.490000</v>
+        <v>1236.49</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.987000</v>
+        <v>-101.98699999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>51951.924560</v>
+        <v>51951.924559999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>14.431090</v>
+        <v>14.431089999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1246.650000</v>
+        <v>1246.6500000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.658000</v>
+        <v>-121.658</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>51962.989344</v>
+        <v>51962.989344000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>14.434164</v>
+        <v>14.434164000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1255.200000</v>
+        <v>1255.2</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.349000</v>
+        <v>-139.34899999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>51973.918659</v>
+        <v>51973.918659000003</v>
       </c>
       <c r="BE11" s="1">
-        <v>14.437200</v>
+        <v>14.437200000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1295.780000</v>
+        <v>1295.78</v>
       </c>
       <c r="BG11" s="1">
-        <v>-222.235000</v>
+        <v>-222.23500000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>51985.019651</v>
+        <v>51985.019651000002</v>
       </c>
       <c r="BJ11" s="1">
-        <v>14.440283</v>
+        <v>14.440283000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1366.170000</v>
+        <v>1366.17</v>
       </c>
       <c r="BL11" s="1">
-        <v>-360.012000</v>
+        <v>-360.012</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>51995.689061</v>
+        <v>51995.689060999997</v>
       </c>
       <c r="BO11" s="1">
         <v>14.443247</v>
       </c>
       <c r="BP11" s="1">
-        <v>1481.820000</v>
+        <v>1481.82</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-584.004000</v>
+        <v>-584.00400000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>52006.264041</v>
+        <v>52006.264041000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>14.446184</v>
+        <v>14.446184000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1615.920000</v>
+        <v>1615.92</v>
       </c>
       <c r="BV11" s="1">
-        <v>-836.659000</v>
+        <v>-836.65899999999999</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>52016.829713</v>
+        <v>52016.829712999999</v>
       </c>
       <c r="BY11" s="1">
         <v>14.449119</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1769.210000</v>
+        <v>1769.21</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1111.490000</v>
+        <v>-1111.49</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>52029.006826</v>
+        <v>52029.006825999997</v>
       </c>
       <c r="CD11" s="1">
-        <v>14.452502</v>
+        <v>14.452502000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>2192.170000</v>
+        <v>2192.17</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1776.990000</v>
+        <v>-1776.99</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>51858.264525</v>
+        <v>51858.264524999999</v>
       </c>
       <c r="B12" s="1">
         <v>14.405073</v>
       </c>
       <c r="C12" s="1">
-        <v>1141.240000</v>
+        <v>1141.24</v>
       </c>
       <c r="D12" s="1">
-        <v>-234.878000</v>
+        <v>-234.87799999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>51868.672557</v>
+        <v>51868.672556999998</v>
       </c>
       <c r="G12" s="1">
-        <v>14.407965</v>
+        <v>14.407965000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1161.190000</v>
+        <v>1161.19</v>
       </c>
       <c r="I12" s="1">
-        <v>-200.265000</v>
+        <v>-200.26499999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>51879.164928</v>
+        <v>51879.164927999998</v>
       </c>
       <c r="L12" s="1">
         <v>14.410879</v>
       </c>
       <c r="M12" s="1">
-        <v>1189.550000</v>
+        <v>1189.55</v>
       </c>
       <c r="N12" s="1">
-        <v>-143.860000</v>
+        <v>-143.86000000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>51889.699499</v>
+        <v>51889.699499000002</v>
       </c>
       <c r="Q12" s="1">
         <v>14.413805</v>
       </c>
       <c r="R12" s="1">
-        <v>1198.430000</v>
+        <v>1198.43</v>
       </c>
       <c r="S12" s="1">
-        <v>-124.477000</v>
+        <v>-124.477</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>51900.206829</v>
+        <v>51900.206829000002</v>
       </c>
       <c r="V12" s="1">
         <v>14.416724</v>
       </c>
       <c r="W12" s="1">
-        <v>1207.000000</v>
+        <v>1207</v>
       </c>
       <c r="X12" s="1">
-        <v>-105.469000</v>
+        <v>-105.46899999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>51910.716934</v>
+        <v>51910.716933999996</v>
       </c>
       <c r="AA12" s="1">
         <v>14.419644</v>
       </c>
       <c r="AB12" s="1">
-        <v>1215.720000</v>
+        <v>1215.72</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.868500</v>
+        <v>-89.868499999999997</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>51921.087289</v>
+        <v>51921.087289000003</v>
       </c>
       <c r="AF12" s="1">
-        <v>14.422524</v>
+        <v>14.422523999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1220.840000</v>
+        <v>1220.8399999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.027600</v>
+        <v>-86.027600000000007</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>51931.153903</v>
+        <v>51931.153902999999</v>
       </c>
       <c r="AK12" s="1">
         <v>14.425321</v>
       </c>
       <c r="AL12" s="1">
-        <v>1228.360000</v>
+        <v>1228.3599999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.717100</v>
+        <v>-89.717100000000002</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>51941.594382</v>
+        <v>51941.594382000003</v>
       </c>
       <c r="AP12" s="1">
-        <v>14.428221</v>
+        <v>14.428221000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1236.520000</v>
+        <v>1236.52</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.997000</v>
+        <v>-101.997</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>51952.288159</v>
+        <v>51952.288159000003</v>
       </c>
       <c r="AU12" s="1">
         <v>14.431191</v>
       </c>
       <c r="AV12" s="1">
-        <v>1246.620000</v>
+        <v>1246.6199999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.626000</v>
+        <v>-121.626</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>51963.348912</v>
+        <v>51963.348912000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>14.434264</v>
+        <v>14.434264000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1255.220000</v>
+        <v>1255.22</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.355000</v>
+        <v>-139.35499999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>51974.343270</v>
+        <v>51974.343269999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>14.437318</v>
+        <v>14.437317999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1295.810000</v>
+        <v>1295.81</v>
       </c>
       <c r="BG12" s="1">
-        <v>-222.233000</v>
+        <v>-222.233</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>51985.439235</v>
+        <v>51985.439234999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>14.440400</v>
+        <v>14.4404</v>
       </c>
       <c r="BK12" s="1">
-        <v>1366.190000</v>
+        <v>1366.19</v>
       </c>
       <c r="BL12" s="1">
-        <v>-359.954000</v>
+        <v>-359.95400000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>51996.086884</v>
+        <v>51996.086883999997</v>
       </c>
       <c r="BO12" s="1">
-        <v>14.443357</v>
+        <v>14.443357000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1481.860000</v>
+        <v>1481.86</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-584.000000</v>
+        <v>-584</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>52006.586663</v>
+        <v>52006.586663000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>14.446274</v>
+        <v>14.446274000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1615.820000</v>
+        <v>1615.82</v>
       </c>
       <c r="BV12" s="1">
-        <v>-836.704000</v>
+        <v>-836.70399999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>52017.255145</v>
+        <v>52017.255145000003</v>
       </c>
       <c r="BY12" s="1">
-        <v>14.449238</v>
+        <v>14.449237999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1769.380000</v>
+        <v>1769.38</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1111.380000</v>
+        <v>-1111.3800000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>52029.538573</v>
+        <v>52029.538572999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>14.452650</v>
+        <v>14.45265</v>
       </c>
       <c r="CE12" s="1">
-        <v>2192.370000</v>
+        <v>2192.37</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1775.460000</v>
+        <v>-1775.46</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>51858.608236</v>
       </c>
       <c r="B13" s="1">
-        <v>14.405169</v>
+        <v>14.405169000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1141.440000</v>
+        <v>1141.44</v>
       </c>
       <c r="D13" s="1">
-        <v>-235.020000</v>
+        <v>-235.02</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>51869.017277</v>
+        <v>51869.017276999999</v>
       </c>
       <c r="G13" s="1">
-        <v>14.408060</v>
+        <v>14.408060000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1160.770000</v>
+        <v>1160.77</v>
       </c>
       <c r="I13" s="1">
-        <v>-200.886000</v>
+        <v>-200.886</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>51879.513651</v>
+        <v>51879.513651000001</v>
       </c>
       <c r="L13" s="1">
         <v>14.410976</v>
       </c>
       <c r="M13" s="1">
-        <v>1189.670000</v>
+        <v>1189.67</v>
       </c>
       <c r="N13" s="1">
-        <v>-143.971000</v>
+        <v>-143.971</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>51890.353184</v>
       </c>
       <c r="Q13" s="1">
-        <v>14.413987</v>
+        <v>14.413987000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1198.420000</v>
+        <v>1198.42</v>
       </c>
       <c r="S13" s="1">
-        <v>-124.452000</v>
+        <v>-124.452</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>51900.857460</v>
+        <v>51900.857459999999</v>
       </c>
       <c r="V13" s="1">
         <v>14.416905</v>
       </c>
       <c r="W13" s="1">
-        <v>1206.930000</v>
+        <v>1206.93</v>
       </c>
       <c r="X13" s="1">
-        <v>-105.701000</v>
+        <v>-105.70099999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>51911.110261</v>
+        <v>51911.110261000002</v>
       </c>
       <c r="AA13" s="1">
         <v>14.419753</v>
       </c>
       <c r="AB13" s="1">
-        <v>1215.660000</v>
+        <v>1215.6600000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.888400</v>
+        <v>-89.888400000000004</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>51921.318423</v>
+        <v>51921.318422999997</v>
       </c>
       <c r="AF13" s="1">
-        <v>14.422588</v>
+        <v>14.422587999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1220.730000</v>
+        <v>1220.73</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.909000</v>
+        <v>-85.909000000000006</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>51931.502317</v>
+        <v>51931.502316999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>14.425417</v>
+        <v>14.425416999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1228.310000</v>
+        <v>1228.31</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.691700</v>
+        <v>-89.691699999999997</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>51941.953022</v>
+        <v>51941.953022000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>14.428320</v>
+        <v>14.428319999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1236.530000</v>
+        <v>1236.53</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.972000</v>
+        <v>-101.97199999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>51952.653679</v>
+        <v>51952.653679000003</v>
       </c>
       <c r="AU13" s="1">
         <v>14.431293</v>
       </c>
       <c r="AV13" s="1">
-        <v>1246.650000</v>
+        <v>1246.6500000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.634000</v>
+        <v>-121.634</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>51963.774512</v>
+        <v>51963.774512000004</v>
       </c>
       <c r="AZ13" s="1">
-        <v>14.434382</v>
+        <v>14.434381999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1255.200000</v>
+        <v>1255.2</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.381000</v>
+        <v>-139.381</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>51974.648800</v>
+        <v>51974.648800000003</v>
       </c>
       <c r="BE13" s="1">
-        <v>14.437402</v>
+        <v>14.437402000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1295.790000</v>
+        <v>1295.79</v>
       </c>
       <c r="BG13" s="1">
-        <v>-222.227000</v>
+        <v>-222.227</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>51985.799141</v>
+        <v>51985.799141000003</v>
       </c>
       <c r="BJ13" s="1">
-        <v>14.440500</v>
+        <v>14.4405</v>
       </c>
       <c r="BK13" s="1">
-        <v>1366.180000</v>
+        <v>1366.18</v>
       </c>
       <c r="BL13" s="1">
-        <v>-359.944000</v>
+        <v>-359.94400000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>51996.507988</v>
+        <v>51996.507987999998</v>
       </c>
       <c r="BO13" s="1">
         <v>14.443474</v>
       </c>
       <c r="BP13" s="1">
-        <v>1481.760000</v>
+        <v>1481.76</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-583.982000</v>
+        <v>-583.98199999999997</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>52007.003304</v>
+        <v>52007.003303999998</v>
       </c>
       <c r="BT13" s="1">
-        <v>14.446390</v>
+        <v>14.446389999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1615.870000</v>
+        <v>1615.87</v>
       </c>
       <c r="BV13" s="1">
-        <v>-836.541000</v>
+        <v>-836.54100000000005</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>52017.671257</v>
+        <v>52017.671257000002</v>
       </c>
       <c r="BY13" s="1">
         <v>14.449353</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1769.110000</v>
+        <v>1769.11</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1111.550000</v>
+        <v>-1111.55</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>52030.056392</v>
+        <v>52030.056391999999</v>
       </c>
       <c r="CD13" s="1">
         <v>14.452793</v>
       </c>
       <c r="CE13" s="1">
-        <v>2190.810000</v>
+        <v>2190.81</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1775.250000</v>
+        <v>-1775.25</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>51858.950971</v>
+        <v>51858.950970999998</v>
       </c>
       <c r="B14" s="1">
-        <v>14.405264</v>
+        <v>14.405264000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1141.320000</v>
+        <v>1141.32</v>
       </c>
       <c r="D14" s="1">
-        <v>-234.990000</v>
+        <v>-234.99</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>51869.362524</v>
+        <v>51869.362523999996</v>
       </c>
       <c r="G14" s="1">
         <v>14.408156</v>
       </c>
       <c r="H14" s="1">
-        <v>1160.180000</v>
+        <v>1160.18</v>
       </c>
       <c r="I14" s="1">
-        <v>-201.118000</v>
+        <v>-201.11799999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>51880.164862</v>
+        <v>51880.164861999998</v>
       </c>
       <c r="L14" s="1">
-        <v>14.411157</v>
+        <v>14.411156999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1189.410000</v>
+        <v>1189.4100000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-144.182000</v>
+        <v>-144.18199999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>51890.746513</v>
+        <v>51890.746512999998</v>
       </c>
       <c r="Q14" s="1">
-        <v>14.414096</v>
+        <v>14.414096000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1198.430000</v>
+        <v>1198.43</v>
       </c>
       <c r="S14" s="1">
-        <v>-124.469000</v>
+        <v>-124.46899999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>51901.238421</v>
+        <v>51901.238421000002</v>
       </c>
       <c r="V14" s="1">
         <v>14.417011</v>
       </c>
       <c r="W14" s="1">
-        <v>1207.060000</v>
+        <v>1207.06</v>
       </c>
       <c r="X14" s="1">
-        <v>-105.513000</v>
+        <v>-105.51300000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>51911.452004</v>
+        <v>51911.452003999999</v>
       </c>
       <c r="AA14" s="1">
         <v>14.419848</v>
       </c>
       <c r="AB14" s="1">
-        <v>1215.630000</v>
+        <v>1215.6300000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.848200</v>
+        <v>-89.848200000000006</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>51921.662679</v>
+        <v>51921.662679000001</v>
       </c>
       <c r="AF14" s="1">
         <v>14.422684</v>
       </c>
       <c r="AG14" s="1">
-        <v>1220.820000</v>
+        <v>1220.82</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.969900</v>
+        <v>-85.969899999999996</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>51931.849482</v>
+        <v>51931.849481999998</v>
       </c>
       <c r="AK14" s="1">
         <v>14.425514</v>
       </c>
       <c r="AL14" s="1">
-        <v>1228.350000</v>
+        <v>1228.3499999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.713600</v>
+        <v>-89.7136</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>51942.377596</v>
+        <v>51942.377595999998</v>
       </c>
       <c r="AP14" s="1">
         <v>14.428438</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1236.540000</v>
+        <v>1236.54</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.989000</v>
+        <v>-101.989</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>51953.075805</v>
       </c>
       <c r="AU14" s="1">
-        <v>14.431410</v>
+        <v>14.43141</v>
       </c>
       <c r="AV14" s="1">
-        <v>1246.680000</v>
+        <v>1246.68</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.662000</v>
+        <v>-121.66200000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>51964.064175</v>
@@ -3715,13 +4131,13 @@
         <v>14.434462</v>
       </c>
       <c r="BA14" s="1">
-        <v>1255.180000</v>
+        <v>1255.18</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.363000</v>
+        <v>-139.363</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>51975.012336</v>
@@ -3730,452 +4146,452 @@
         <v>14.437503</v>
       </c>
       <c r="BF14" s="1">
-        <v>1295.820000</v>
+        <v>1295.82</v>
       </c>
       <c r="BG14" s="1">
-        <v>-222.229000</v>
+        <v>-222.22900000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>51986.174803</v>
+        <v>51986.174803000002</v>
       </c>
       <c r="BJ14" s="1">
         <v>14.440604</v>
       </c>
       <c r="BK14" s="1">
-        <v>1366.110000</v>
+        <v>1366.11</v>
       </c>
       <c r="BL14" s="1">
-        <v>-360.004000</v>
+        <v>-360.00400000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>51996.907237</v>
+        <v>51996.907236999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>14.443585</v>
+        <v>14.443585000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1481.820000</v>
+        <v>1481.82</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-584.052000</v>
+        <v>-584.05200000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>52007.429897</v>
+        <v>52007.429897000002</v>
       </c>
       <c r="BT14" s="1">
         <v>14.446508</v>
       </c>
       <c r="BU14" s="1">
-        <v>1615.800000</v>
+        <v>1615.8</v>
       </c>
       <c r="BV14" s="1">
-        <v>-836.537000</v>
+        <v>-836.53700000000003</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>52018.117655</v>
+        <v>52018.117655000002</v>
       </c>
       <c r="BY14" s="1">
         <v>14.449477</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1769.230000</v>
+        <v>1769.23</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1111.350000</v>
+        <v>-1111.3499999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>52030.575704</v>
+        <v>52030.575704000003</v>
       </c>
       <c r="CD14" s="1">
         <v>14.452938</v>
       </c>
       <c r="CE14" s="1">
-        <v>2191.220000</v>
+        <v>2191.2199999999998</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1777.470000</v>
+        <v>-1777.47</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>51859.597785</v>
+        <v>51859.597784999998</v>
       </c>
       <c r="B15" s="1">
-        <v>14.405444</v>
+        <v>14.405443999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1141.300000</v>
+        <v>1141.3</v>
       </c>
       <c r="D15" s="1">
-        <v>-234.956000</v>
+        <v>-234.95599999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>51869.997869</v>
+        <v>51869.997868999999</v>
       </c>
       <c r="G15" s="1">
-        <v>14.408333</v>
+        <v>14.408333000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1161.070000</v>
+        <v>1161.07</v>
       </c>
       <c r="I15" s="1">
-        <v>-200.682000</v>
+        <v>-200.68199999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>51880.549790</v>
+        <v>51880.549789999997</v>
       </c>
       <c r="L15" s="1">
-        <v>14.411264</v>
+        <v>14.411263999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1189.600000</v>
+        <v>1189.5999999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-144.122000</v>
+        <v>-144.12200000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>51891.097680</v>
+        <v>51891.097679999999</v>
       </c>
       <c r="Q15" s="1">
         <v>14.414194</v>
       </c>
       <c r="R15" s="1">
-        <v>1198.450000</v>
+        <v>1198.45</v>
       </c>
       <c r="S15" s="1">
-        <v>-124.532000</v>
+        <v>-124.532</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>51901.579663</v>
+        <v>51901.579662999997</v>
       </c>
       <c r="V15" s="1">
-        <v>14.417105</v>
+        <v>14.417104999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1207.050000</v>
+        <v>1207.05</v>
       </c>
       <c r="X15" s="1">
-        <v>-105.667000</v>
+        <v>-105.667</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>51911.797220</v>
+        <v>51911.79722</v>
       </c>
       <c r="AA15" s="1">
-        <v>14.419944</v>
+        <v>14.419943999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1215.690000</v>
+        <v>1215.69</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.897500</v>
+        <v>-89.897499999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>51922.090696</v>
+        <v>51922.090695999999</v>
       </c>
       <c r="AF15" s="1">
         <v>14.422803</v>
       </c>
       <c r="AG15" s="1">
-        <v>1220.840000</v>
+        <v>1220.8399999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.862600</v>
+        <v>-85.8626</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>51932.279544</v>
+        <v>51932.279543999997</v>
       </c>
       <c r="AK15" s="1">
-        <v>14.425633</v>
+        <v>14.425632999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1228.320000</v>
+        <v>1228.32</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.710500</v>
+        <v>-89.710499999999996</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>51942.676187</v>
+        <v>51942.676186999997</v>
       </c>
       <c r="AP15" s="1">
         <v>14.428521</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1236.490000</v>
+        <v>1236.49</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.004000</v>
+        <v>-102.004</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>51953.381309</v>
+        <v>51953.381308999997</v>
       </c>
       <c r="AU15" s="1">
         <v>14.431495</v>
       </c>
       <c r="AV15" s="1">
-        <v>1246.630000</v>
+        <v>1246.6300000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.626000</v>
+        <v>-121.626</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>51964.425267</v>
+        <v>51964.425266999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>14.434563</v>
+        <v>14.434563000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1255.210000</v>
+        <v>1255.21</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.373000</v>
+        <v>-139.37299999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>51975.371969</v>
       </c>
       <c r="BE15" s="1">
-        <v>14.437603</v>
+        <v>14.437602999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1295.780000</v>
+        <v>1295.78</v>
       </c>
       <c r="BG15" s="1">
-        <v>-222.242000</v>
+        <v>-222.24199999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>51986.549778</v>
+        <v>51986.549778000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>14.440708</v>
+        <v>14.440708000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1366.200000</v>
+        <v>1366.2</v>
       </c>
       <c r="BL15" s="1">
-        <v>-359.920000</v>
+        <v>-359.92</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>51997.327875</v>
+        <v>51997.327875000003</v>
       </c>
       <c r="BO15" s="1">
         <v>14.443702</v>
       </c>
       <c r="BP15" s="1">
-        <v>1481.790000</v>
+        <v>1481.79</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-584.038000</v>
+        <v>-584.03800000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>52007.833642</v>
+        <v>52007.833641999998</v>
       </c>
       <c r="BT15" s="1">
-        <v>14.446620</v>
+        <v>14.446619999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1615.780000</v>
+        <v>1615.78</v>
       </c>
       <c r="BV15" s="1">
-        <v>-836.397000</v>
+        <v>-836.39700000000005</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>52018.539751</v>
+        <v>52018.539750999997</v>
       </c>
       <c r="BY15" s="1">
-        <v>14.449594</v>
+        <v>14.449593999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1769.170000</v>
+        <v>1769.17</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1111.460000</v>
+        <v>-1111.46</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>52031.092999</v>
       </c>
       <c r="CD15" s="1">
-        <v>14.453081</v>
+        <v>14.453080999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>2190.420000</v>
+        <v>2190.42</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1776.950000</v>
+        <v>-1776.95</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>51859.975736</v>
       </c>
       <c r="B16" s="1">
-        <v>14.405549</v>
+        <v>14.405549000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1141.320000</v>
+        <v>1141.32</v>
       </c>
       <c r="D16" s="1">
-        <v>-234.930000</v>
+        <v>-234.93</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>51870.395659</v>
+        <v>51870.395659000002</v>
       </c>
       <c r="G16" s="1">
         <v>14.408443</v>
       </c>
       <c r="H16" s="1">
-        <v>1160.810000</v>
+        <v>1160.81</v>
       </c>
       <c r="I16" s="1">
-        <v>-200.453000</v>
+        <v>-200.453</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>51880.895470</v>
+        <v>51880.895470000003</v>
       </c>
       <c r="L16" s="1">
-        <v>14.411360</v>
+        <v>14.41136</v>
       </c>
       <c r="M16" s="1">
-        <v>1189.710000</v>
+        <v>1189.71</v>
       </c>
       <c r="N16" s="1">
-        <v>-144.004000</v>
+        <v>-144.00399999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>51891.443392</v>
+        <v>51891.443392000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>14.414290</v>
+        <v>14.414289999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1198.400000</v>
+        <v>1198.4000000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-124.494000</v>
+        <v>-124.494</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>51901.923361</v>
+        <v>51901.923361000001</v>
       </c>
       <c r="V16" s="1">
         <v>14.417201</v>
       </c>
       <c r="W16" s="1">
-        <v>1207.040000</v>
+        <v>1207.04</v>
       </c>
       <c r="X16" s="1">
-        <v>-105.671000</v>
+        <v>-105.67100000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>51912.210424</v>
+        <v>51912.210423999997</v>
       </c>
       <c r="AA16" s="1">
-        <v>14.420058</v>
+        <v>14.420057999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1215.750000</v>
+        <v>1215.75</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.935500</v>
+        <v>-89.935500000000005</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>51922.352086</v>
+        <v>51922.352085999999</v>
       </c>
       <c r="AF16" s="1">
         <v>14.422876</v>
       </c>
       <c r="AG16" s="1">
-        <v>1220.850000</v>
+        <v>1220.8499999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.911500</v>
+        <v>-85.911500000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>51932.558761</v>
@@ -4184,285 +4600,285 @@
         <v>14.425711</v>
       </c>
       <c r="AL16" s="1">
-        <v>1228.340000</v>
+        <v>1228.3399999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.715200</v>
+        <v>-89.715199999999996</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>51943.036262</v>
+        <v>51943.036262000001</v>
       </c>
       <c r="AP16" s="1">
         <v>14.428621</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1236.520000</v>
+        <v>1236.52</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.975000</v>
+        <v>-101.97499999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>51953.747890</v>
+        <v>51953.747889999999</v>
       </c>
       <c r="AU16" s="1">
         <v>14.431597</v>
       </c>
       <c r="AV16" s="1">
-        <v>1246.650000</v>
+        <v>1246.6500000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.636000</v>
+        <v>-121.636</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>51964.783844</v>
+        <v>51964.783843999998</v>
       </c>
       <c r="AZ16" s="1">
-        <v>14.434662</v>
+        <v>14.434661999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1255.240000</v>
+        <v>1255.24</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.370000</v>
+        <v>-139.37</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>51976.093647</v>
+        <v>51976.093647000002</v>
       </c>
       <c r="BE16" s="1">
         <v>14.437804</v>
       </c>
       <c r="BF16" s="1">
-        <v>1295.800000</v>
+        <v>1295.8</v>
       </c>
       <c r="BG16" s="1">
-        <v>-222.203000</v>
+        <v>-222.203</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>51987.321552</v>
+        <v>51987.321552000001</v>
       </c>
       <c r="BJ16" s="1">
         <v>14.440923</v>
       </c>
       <c r="BK16" s="1">
-        <v>1366.190000</v>
+        <v>1366.19</v>
       </c>
       <c r="BL16" s="1">
-        <v>-360.004000</v>
+        <v>-360.00400000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>51997.723650</v>
+        <v>51997.72365</v>
       </c>
       <c r="BO16" s="1">
-        <v>14.443812</v>
+        <v>14.443811999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1481.850000</v>
+        <v>1481.85</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-584.020000</v>
+        <v>-584.02</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>52008.245317</v>
+        <v>52008.245317000001</v>
       </c>
       <c r="BT16" s="1">
         <v>14.446735</v>
       </c>
       <c r="BU16" s="1">
-        <v>1615.570000</v>
+        <v>1615.57</v>
       </c>
       <c r="BV16" s="1">
-        <v>-836.347000</v>
+        <v>-836.34699999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>52018.961885</v>
+        <v>52018.961884999997</v>
       </c>
       <c r="BY16" s="1">
         <v>14.449712</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1769.290000</v>
+        <v>1769.29</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1111.370000</v>
+        <v>-1111.3699999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>52031.957062</v>
+        <v>52031.957062000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>14.453321</v>
+        <v>14.453321000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>2190.720000</v>
+        <v>2190.7199999999998</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1775.890000</v>
+        <v>-1775.89</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>51860.317983</v>
+        <v>51860.317983000001</v>
       </c>
       <c r="B17" s="1">
-        <v>14.405644</v>
+        <v>14.405644000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1141.350000</v>
+        <v>1141.3499999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-234.947000</v>
+        <v>-234.947</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>51870.740906</v>
+        <v>51870.740905999999</v>
       </c>
       <c r="G17" s="1">
-        <v>14.408539</v>
+        <v>14.408538999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1161.200000</v>
+        <v>1161.2</v>
       </c>
       <c r="I17" s="1">
-        <v>-200.547000</v>
+        <v>-200.547</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>51881.242669</v>
+        <v>51881.242668999999</v>
       </c>
       <c r="L17" s="1">
-        <v>14.411456</v>
+        <v>14.411455999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1189.400000</v>
+        <v>1189.4000000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-144.325000</v>
+        <v>-144.32499999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>51891.857550</v>
+        <v>51891.857550000001</v>
       </c>
       <c r="Q17" s="1">
         <v>14.414405</v>
       </c>
       <c r="R17" s="1">
-        <v>1198.400000</v>
+        <v>1198.4000000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-124.534000</v>
+        <v>-124.53400000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>51902.352900</v>
+        <v>51902.352899999998</v>
       </c>
       <c r="V17" s="1">
-        <v>14.417320</v>
+        <v>14.41732</v>
       </c>
       <c r="W17" s="1">
-        <v>1206.960000</v>
+        <v>1206.96</v>
       </c>
       <c r="X17" s="1">
-        <v>-105.535000</v>
+        <v>-105.535</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>51912.504516</v>
+        <v>51912.504516000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>14.420140</v>
+        <v>14.42014</v>
       </c>
       <c r="AB17" s="1">
-        <v>1215.770000</v>
+        <v>1215.77</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.948400</v>
+        <v>-89.948400000000007</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>51922.694823</v>
+        <v>51922.694822999998</v>
       </c>
       <c r="AF17" s="1">
         <v>14.422971</v>
       </c>
       <c r="AG17" s="1">
-        <v>1220.760000</v>
+        <v>1220.76</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.859700</v>
+        <v>-85.859700000000004</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>51932.906953</v>
+        <v>51932.906952999998</v>
       </c>
       <c r="AK17" s="1">
-        <v>14.425807</v>
+        <v>14.425807000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1228.330000</v>
+        <v>1228.33</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.719600</v>
+        <v>-89.7196</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>51943.395884</v>
+        <v>51943.395883999998</v>
       </c>
       <c r="AP17" s="1">
-        <v>14.428721</v>
+        <v>14.428720999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1236.470000</v>
+        <v>1236.47</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.988000</v>
+        <v>-101.988</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>51954.109933</v>
@@ -4471,799 +4887,799 @@
         <v>14.431697</v>
       </c>
       <c r="AV17" s="1">
-        <v>1246.640000</v>
+        <v>1246.6400000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.646000</v>
+        <v>-121.646</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>51965.500876</v>
+        <v>51965.500875999998</v>
       </c>
       <c r="AZ17" s="1">
         <v>14.434861</v>
       </c>
       <c r="BA17" s="1">
-        <v>1255.210000</v>
+        <v>1255.21</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.377000</v>
+        <v>-139.37700000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>51976.455200</v>
+        <v>51976.455199999997</v>
       </c>
       <c r="BE17" s="1">
         <v>14.437904</v>
       </c>
       <c r="BF17" s="1">
-        <v>1295.790000</v>
+        <v>1295.79</v>
       </c>
       <c r="BG17" s="1">
-        <v>-222.242000</v>
+        <v>-222.24199999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>51987.699503</v>
+        <v>51987.699503000003</v>
       </c>
       <c r="BJ17" s="1">
-        <v>14.441028</v>
+        <v>14.441027999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1366.180000</v>
+        <v>1366.18</v>
       </c>
       <c r="BL17" s="1">
-        <v>-359.951000</v>
+        <v>-359.95100000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>51998.145746</v>
+        <v>51998.145746000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>14.443929</v>
+        <v>14.443929000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1481.830000</v>
+        <v>1481.83</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-584.037000</v>
+        <v>-584.03700000000003</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>52008.972452</v>
+        <v>52008.972452000002</v>
       </c>
       <c r="BT17" s="1">
         <v>14.446937</v>
       </c>
       <c r="BU17" s="1">
-        <v>1615.530000</v>
+        <v>1615.53</v>
       </c>
       <c r="BV17" s="1">
-        <v>-836.358000</v>
+        <v>-836.35799999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>52019.715302</v>
+        <v>52019.715301999997</v>
       </c>
       <c r="BY17" s="1">
         <v>14.449921</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1769.260000</v>
+        <v>1769.26</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1111.380000</v>
+        <v>-1111.3800000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>52032.174306</v>
+        <v>52032.174306000001</v>
       </c>
       <c r="CD17" s="1">
         <v>14.453382</v>
       </c>
       <c r="CE17" s="1">
-        <v>2191.490000</v>
+        <v>2191.4899999999998</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1777.030000</v>
+        <v>-1777.03</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>51860.661207</v>
+        <v>51860.661206999997</v>
       </c>
       <c r="B18" s="1">
-        <v>14.405739</v>
+        <v>14.405739000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1141.430000</v>
+        <v>1141.43</v>
       </c>
       <c r="D18" s="1">
-        <v>-235.043000</v>
+        <v>-235.04300000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>51871.165450</v>
+        <v>51871.16545</v>
       </c>
       <c r="G18" s="1">
         <v>14.408657</v>
       </c>
       <c r="H18" s="1">
-        <v>1161.280000</v>
+        <v>1161.28</v>
       </c>
       <c r="I18" s="1">
-        <v>-201.095000</v>
+        <v>-201.095</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>51881.653884</v>
+        <v>51881.653883999999</v>
       </c>
       <c r="L18" s="1">
         <v>14.411571</v>
       </c>
       <c r="M18" s="1">
-        <v>1189.530000</v>
+        <v>1189.53</v>
       </c>
       <c r="N18" s="1">
-        <v>-144.187000</v>
+        <v>-144.18700000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>51892.154686</v>
+        <v>51892.154686000002</v>
       </c>
       <c r="Q18" s="1">
-        <v>14.414487</v>
+        <v>14.414486999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1198.380000</v>
+        <v>1198.3800000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-124.509000</v>
+        <v>-124.509</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>51902.639785</v>
+        <v>51902.639784999999</v>
       </c>
       <c r="V18" s="1">
-        <v>14.417400</v>
+        <v>14.417400000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1206.990000</v>
+        <v>1206.99</v>
       </c>
       <c r="X18" s="1">
-        <v>-105.674000</v>
+        <v>-105.67400000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>51912.852706</v>
+        <v>51912.852705999998</v>
       </c>
       <c r="AA18" s="1">
         <v>14.420237</v>
       </c>
       <c r="AB18" s="1">
-        <v>1215.790000</v>
+        <v>1215.79</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.834500</v>
+        <v>-89.834500000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>51923.038551</v>
+        <v>51923.038550999998</v>
       </c>
       <c r="AF18" s="1">
         <v>14.423066</v>
       </c>
       <c r="AG18" s="1">
-        <v>1220.770000</v>
+        <v>1220.77</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.938600</v>
+        <v>-85.938599999999994</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>51933.257129</v>
+        <v>51933.257128999998</v>
       </c>
       <c r="AK18" s="1">
         <v>14.425905</v>
       </c>
       <c r="AL18" s="1">
-        <v>1228.340000</v>
+        <v>1228.3399999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.723500</v>
+        <v>-89.723500000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>51944.123513</v>
+        <v>51944.123512999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>14.428923</v>
+        <v>14.428922999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1236.500000</v>
+        <v>1236.5</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.014000</v>
+        <v>-102.014</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>51954.838557</v>
+        <v>51954.838557000003</v>
       </c>
       <c r="AU18" s="1">
-        <v>14.431900</v>
+        <v>14.431900000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1246.630000</v>
+        <v>1246.6300000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.643000</v>
+        <v>-121.643</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>51965.858669</v>
+        <v>51965.858669000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>14.434961</v>
+        <v>14.434960999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1255.200000</v>
+        <v>1255.2</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.343000</v>
+        <v>-139.34299999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>51976.814835</v>
+        <v>51976.814834999997</v>
       </c>
       <c r="BE18" s="1">
-        <v>14.438004</v>
+        <v>14.438003999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1295.770000</v>
+        <v>1295.77</v>
       </c>
       <c r="BG18" s="1">
-        <v>-222.220000</v>
+        <v>-222.22</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>51988.074479</v>
+        <v>51988.074479000003</v>
       </c>
       <c r="BJ18" s="1">
         <v>14.441132</v>
       </c>
       <c r="BK18" s="1">
-        <v>1366.190000</v>
+        <v>1366.19</v>
       </c>
       <c r="BL18" s="1">
-        <v>-359.919000</v>
+        <v>-359.91899999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>51998.847095</v>
+        <v>51998.847094999997</v>
       </c>
       <c r="BO18" s="1">
         <v>14.444124</v>
       </c>
       <c r="BP18" s="1">
-        <v>1481.780000</v>
+        <v>1481.78</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-584.036000</v>
+        <v>-584.03599999999994</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>52009.080554</v>
       </c>
       <c r="BT18" s="1">
-        <v>14.446967</v>
+        <v>14.446967000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1615.380000</v>
+        <v>1615.38</v>
       </c>
       <c r="BV18" s="1">
-        <v>-836.258000</v>
+        <v>-836.25800000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>52019.843771</v>
       </c>
       <c r="BY18" s="1">
-        <v>14.449957</v>
+        <v>14.449956999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1769.200000</v>
+        <v>1769.2</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1111.250000</v>
+        <v>-1111.25</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>52032.692101</v>
+        <v>52032.692101000001</v>
       </c>
       <c r="CD18" s="1">
         <v>14.453526</v>
       </c>
       <c r="CE18" s="1">
-        <v>2190.630000</v>
+        <v>2190.63</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1776.450000</v>
+        <v>-1776.45</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>51861.092699</v>
+        <v>51861.092699000001</v>
       </c>
       <c r="B19" s="1">
         <v>14.405859</v>
       </c>
       <c r="C19" s="1">
-        <v>1141.170000</v>
+        <v>1141.17</v>
       </c>
       <c r="D19" s="1">
-        <v>-234.822000</v>
+        <v>-234.822</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>51871.443707</v>
+        <v>51871.443706999999</v>
       </c>
       <c r="G19" s="1">
-        <v>14.408734</v>
+        <v>14.408734000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1160.860000</v>
+        <v>1160.8599999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-200.076000</v>
+        <v>-200.07599999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>51881.954427</v>
+        <v>51881.954426999997</v>
       </c>
       <c r="L19" s="1">
         <v>14.411654</v>
       </c>
       <c r="M19" s="1">
-        <v>1189.550000</v>
+        <v>1189.55</v>
       </c>
       <c r="N19" s="1">
-        <v>-143.837000</v>
+        <v>-143.83699999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>51892.500398</v>
+        <v>51892.500397999996</v>
       </c>
       <c r="Q19" s="1">
         <v>14.414583</v>
       </c>
       <c r="R19" s="1">
-        <v>1198.420000</v>
+        <v>1198.42</v>
       </c>
       <c r="S19" s="1">
-        <v>-124.441000</v>
+        <v>-124.441</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>51902.977360</v>
+        <v>51902.977359999997</v>
       </c>
       <c r="V19" s="1">
         <v>14.417494</v>
       </c>
       <c r="W19" s="1">
-        <v>1207.020000</v>
+        <v>1207.02</v>
       </c>
       <c r="X19" s="1">
-        <v>-105.554000</v>
+        <v>-105.554</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>51913.202386</v>
+        <v>51913.202385999997</v>
       </c>
       <c r="AA19" s="1">
         <v>14.420334</v>
       </c>
       <c r="AB19" s="1">
-        <v>1215.680000</v>
+        <v>1215.68</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.876400</v>
+        <v>-89.876400000000004</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>51923.727028</v>
+        <v>51923.727028000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>14.423258</v>
+        <v>14.423258000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1220.820000</v>
+        <v>1220.82</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.830800</v>
+        <v>-85.830799999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>51933.950535</v>
+        <v>51933.950535000004</v>
       </c>
       <c r="AK19" s="1">
         <v>14.426097</v>
       </c>
       <c r="AL19" s="1">
-        <v>1228.320000</v>
+        <v>1228.32</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.708500</v>
+        <v>-89.708500000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>51944.500937</v>
+        <v>51944.500936999997</v>
       </c>
       <c r="AP19" s="1">
-        <v>14.429028</v>
+        <v>14.429028000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1236.470000</v>
+        <v>1236.47</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.966000</v>
+        <v>-101.96599999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>51955.232418</v>
       </c>
       <c r="AU19" s="1">
-        <v>14.432009</v>
+        <v>14.432009000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1246.670000</v>
+        <v>1246.67</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.662000</v>
+        <v>-121.66200000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>51966.218269</v>
+        <v>51966.218268999997</v>
       </c>
       <c r="AZ19" s="1">
-        <v>14.435061</v>
+        <v>14.435060999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1255.200000</v>
+        <v>1255.2</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.351000</v>
+        <v>-139.351</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>51977.485421</v>
+        <v>51977.485420999998</v>
       </c>
       <c r="BE19" s="1">
-        <v>14.438190</v>
+        <v>14.438190000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1295.790000</v>
+        <v>1295.79</v>
       </c>
       <c r="BG19" s="1">
-        <v>-222.206000</v>
+        <v>-222.20599999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>51988.756479</v>
+        <v>51988.756479000003</v>
       </c>
       <c r="BJ19" s="1">
         <v>14.441321</v>
       </c>
       <c r="BK19" s="1">
-        <v>1366.220000</v>
+        <v>1366.22</v>
       </c>
       <c r="BL19" s="1">
-        <v>-359.959000</v>
+        <v>-359.959</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>51998.961665</v>
+        <v>51998.961665000003</v>
       </c>
       <c r="BO19" s="1">
         <v>14.444156</v>
       </c>
       <c r="BP19" s="1">
-        <v>1481.810000</v>
+        <v>1481.81</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-584.064000</v>
+        <v>-584.06399999999996</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>52009.513721</v>
+        <v>52009.513721000003</v>
       </c>
       <c r="BT19" s="1">
         <v>14.447087</v>
       </c>
       <c r="BU19" s="1">
-        <v>1615.220000</v>
+        <v>1615.22</v>
       </c>
       <c r="BV19" s="1">
-        <v>-836.195000</v>
+        <v>-836.19500000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>52020.282231</v>
+        <v>52020.282230999997</v>
       </c>
       <c r="BY19" s="1">
         <v>14.450078</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1769.110000</v>
+        <v>1769.11</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1111.470000</v>
+        <v>-1111.47</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>52033.242661</v>
+        <v>52033.242660999997</v>
       </c>
       <c r="CD19" s="1">
-        <v>14.453679</v>
+        <v>14.453678999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>2190.550000</v>
+        <v>2190.5500000000002</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1775.810000</v>
+        <v>-1775.81</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>51861.361032</v>
+        <v>51861.361032000001</v>
       </c>
       <c r="B20" s="1">
         <v>14.405934</v>
       </c>
       <c r="C20" s="1">
-        <v>1141.460000</v>
+        <v>1141.46</v>
       </c>
       <c r="D20" s="1">
-        <v>-234.861000</v>
+        <v>-234.86099999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>51871.786474</v>
       </c>
       <c r="G20" s="1">
-        <v>14.408830</v>
+        <v>14.40883</v>
       </c>
       <c r="H20" s="1">
-        <v>1161.450000</v>
+        <v>1161.45</v>
       </c>
       <c r="I20" s="1">
-        <v>-200.926000</v>
+        <v>-200.92599999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>51882.297163</v>
+        <v>51882.297163000003</v>
       </c>
       <c r="L20" s="1">
         <v>14.411749</v>
       </c>
       <c r="M20" s="1">
-        <v>1189.610000</v>
+        <v>1189.6099999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-144.197000</v>
+        <v>-144.197</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>51892.850579</v>
+        <v>51892.850578999998</v>
       </c>
       <c r="Q20" s="1">
         <v>14.414681</v>
       </c>
       <c r="R20" s="1">
-        <v>1198.470000</v>
+        <v>1198.47</v>
       </c>
       <c r="S20" s="1">
-        <v>-124.517000</v>
+        <v>-124.517</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>51903.321124</v>
+        <v>51903.321124000002</v>
       </c>
       <c r="V20" s="1">
         <v>14.417589</v>
       </c>
       <c r="W20" s="1">
-        <v>1207.050000</v>
+        <v>1207.05</v>
       </c>
       <c r="X20" s="1">
-        <v>-105.673000</v>
+        <v>-105.673</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>51913.902773</v>
+        <v>51913.902773000002</v>
       </c>
       <c r="AA20" s="1">
         <v>14.420529</v>
       </c>
       <c r="AB20" s="1">
-        <v>1215.690000</v>
+        <v>1215.69</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.910600</v>
+        <v>-89.910600000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>51924.068740</v>
+        <v>51924.068740000002</v>
       </c>
       <c r="AF20" s="1">
         <v>14.423352</v>
       </c>
       <c r="AG20" s="1">
-        <v>1220.760000</v>
+        <v>1220.76</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.738400</v>
+        <v>-85.738399999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>51934.300215</v>
+        <v>51934.300215000003</v>
       </c>
       <c r="AK20" s="1">
         <v>14.426195</v>
       </c>
       <c r="AL20" s="1">
-        <v>1228.330000</v>
+        <v>1228.33</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.710400</v>
+        <v>-89.710400000000007</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>51944.859544</v>
+        <v>51944.859543999999</v>
       </c>
       <c r="AP20" s="1">
         <v>14.429128</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1236.500000</v>
+        <v>1236.5</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.993000</v>
+        <v>-101.99299999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>51955.904459</v>
+        <v>51955.904458999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>14.432196</v>
+        <v>14.432195999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1246.650000</v>
+        <v>1246.6500000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.654000</v>
+        <v>-121.654</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>51966.880950</v>
+        <v>51966.880949999999</v>
       </c>
       <c r="AZ20" s="1">
         <v>14.435245</v>
       </c>
       <c r="BA20" s="1">
-        <v>1255.210000</v>
+        <v>1255.21</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.380000</v>
+        <v>-139.38</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>51977.930301</v>
@@ -5272,362 +5688,362 @@
         <v>14.438314</v>
       </c>
       <c r="BF20" s="1">
-        <v>1295.780000</v>
+        <v>1295.78</v>
       </c>
       <c r="BG20" s="1">
-        <v>-222.231000</v>
+        <v>-222.23099999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>51988.896387</v>
+        <v>51988.896387000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>14.441360</v>
+        <v>14.44136</v>
       </c>
       <c r="BK20" s="1">
-        <v>1366.230000</v>
+        <v>1366.23</v>
       </c>
       <c r="BL20" s="1">
-        <v>-360.015000</v>
+        <v>-360.01499999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>51999.386768</v>
+        <v>51999.386767999997</v>
       </c>
       <c r="BO20" s="1">
         <v>14.444274</v>
       </c>
       <c r="BP20" s="1">
-        <v>1481.850000</v>
+        <v>1481.85</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-584.041000</v>
+        <v>-584.04100000000005</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>52009.925730</v>
+        <v>52009.925730000003</v>
       </c>
       <c r="BT20" s="1">
-        <v>14.447202</v>
+        <v>14.447202000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1615.240000</v>
+        <v>1615.24</v>
       </c>
       <c r="BV20" s="1">
-        <v>-836.232000</v>
+        <v>-836.23199999999997</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>52020.737524</v>
+        <v>52020.737523999996</v>
       </c>
       <c r="BY20" s="1">
         <v>14.450205</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1769.240000</v>
+        <v>1769.24</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1111.320000</v>
+        <v>-1111.32</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>52033.772921</v>
+        <v>52033.772921000003</v>
       </c>
       <c r="CD20" s="1">
-        <v>14.453826</v>
+        <v>14.453825999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>2191.690000</v>
+        <v>2191.69</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1777.130000</v>
+        <v>-1777.13</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>51861.701286</v>
+        <v>51861.701286000003</v>
       </c>
       <c r="B21" s="1">
-        <v>14.406028</v>
+        <v>14.406027999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1141.300000</v>
+        <v>1141.3</v>
       </c>
       <c r="D21" s="1">
-        <v>-234.838000</v>
+        <v>-234.83799999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>51872.132187</v>
+        <v>51872.132187000003</v>
       </c>
       <c r="G21" s="1">
-        <v>14.408926</v>
+        <v>14.408925999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1160.910000</v>
+        <v>1160.9100000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-200.091000</v>
+        <v>-200.09100000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>51882.642875</v>
+        <v>51882.642874999998</v>
       </c>
       <c r="L21" s="1">
         <v>14.411845</v>
       </c>
       <c r="M21" s="1">
-        <v>1189.430000</v>
+        <v>1189.43</v>
       </c>
       <c r="N21" s="1">
-        <v>-144.134000</v>
+        <v>-144.13399999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>51893.546428</v>
+        <v>51893.546428000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>14.414874</v>
+        <v>14.414873999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1198.490000</v>
+        <v>1198.49</v>
       </c>
       <c r="S21" s="1">
-        <v>-124.475000</v>
+        <v>-124.47499999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>51904.009038</v>
+        <v>51904.009037999997</v>
       </c>
       <c r="V21" s="1">
-        <v>14.417780</v>
+        <v>14.41778</v>
       </c>
       <c r="W21" s="1">
-        <v>1206.950000</v>
+        <v>1206.95</v>
       </c>
       <c r="X21" s="1">
-        <v>-105.671000</v>
+        <v>-105.67100000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>51914.250930</v>
+        <v>51914.250930000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>14.420625</v>
+        <v>14.420624999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1215.750000</v>
+        <v>1215.75</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.889900</v>
+        <v>-89.889899999999997</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>51924.412965</v>
+        <v>51924.412965000003</v>
       </c>
       <c r="AF21" s="1">
         <v>14.423448</v>
       </c>
       <c r="AG21" s="1">
-        <v>1220.850000</v>
+        <v>1220.8499999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.930100</v>
+        <v>-85.930099999999996</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>51934.648903</v>
+        <v>51934.648903000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>14.426291</v>
+        <v>14.426291000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1228.340000</v>
+        <v>1228.3399999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.702400</v>
+        <v>-89.702399999999997</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>51945.534104</v>
+        <v>51945.534103999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>14.429315</v>
+        <v>14.429315000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1236.510000</v>
+        <v>1236.51</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.998000</v>
+        <v>-101.998</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>51956.359321</v>
+        <v>51956.359321000004</v>
       </c>
       <c r="AU21" s="1">
-        <v>14.432322</v>
+        <v>14.432321999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1246.660000</v>
+        <v>1246.6600000000001</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.622000</v>
+        <v>-121.622</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>51967.330335</v>
+        <v>51967.330334999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>14.435370</v>
+        <v>14.435370000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1255.210000</v>
+        <v>1255.21</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.361000</v>
+        <v>-139.36099999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>51978.293868</v>
+        <v>51978.293868000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>14.438415</v>
+        <v>14.438415000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1295.790000</v>
+        <v>1295.79</v>
       </c>
       <c r="BG21" s="1">
-        <v>-222.238000</v>
+        <v>-222.238</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>51989.224205</v>
+        <v>51989.224204999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>14.441451</v>
+        <v>14.441451000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1366.180000</v>
+        <v>1366.18</v>
       </c>
       <c r="BL21" s="1">
-        <v>-359.949000</v>
+        <v>-359.94900000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>51999.784033</v>
+        <v>51999.784033000004</v>
       </c>
       <c r="BO21" s="1">
-        <v>14.444384</v>
+        <v>14.444383999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1481.840000</v>
+        <v>1481.84</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-584.016000</v>
+        <v>-584.01599999999996</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>52010.344354</v>
+        <v>52010.344354000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>14.447318</v>
+        <v>14.447317999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1615.100000</v>
+        <v>1615.1</v>
       </c>
       <c r="BV21" s="1">
-        <v>-836.340000</v>
+        <v>-836.34</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>52021.187397</v>
+        <v>52021.187397000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>14.450330</v>
+        <v>14.450329999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1769.390000</v>
+        <v>1769.39</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1111.350000</v>
+        <v>-1111.3499999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>52034.288254</v>
+        <v>52034.288253999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>14.453969</v>
+        <v>14.453969000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>2192.010000</v>
+        <v>2192.0100000000002</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1774.710000</v>
+        <v>-1774.71</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>51862.044549</v>
+        <v>51862.044548999998</v>
       </c>
       <c r="B22" s="1">
-        <v>14.406123</v>
+        <v>14.406122999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1141.430000</v>
+        <v>1141.43</v>
       </c>
       <c r="D22" s="1">
-        <v>-235.048000</v>
+        <v>-235.048</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>51872.821591</v>
@@ -5636,103 +6052,103 @@
         <v>14.409117</v>
       </c>
       <c r="H22" s="1">
-        <v>1161.480000</v>
+        <v>1161.48</v>
       </c>
       <c r="I22" s="1">
-        <v>-200.958000</v>
+        <v>-200.958</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>51883.335289</v>
+        <v>51883.335289000002</v>
       </c>
       <c r="L22" s="1">
-        <v>14.412038</v>
+        <v>14.412038000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1189.730000</v>
+        <v>1189.73</v>
       </c>
       <c r="N22" s="1">
-        <v>-144.196000</v>
+        <v>-144.196</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>51893.895152</v>
+        <v>51893.895151999997</v>
       </c>
       <c r="Q22" s="1">
         <v>14.414971</v>
       </c>
       <c r="R22" s="1">
-        <v>1198.440000</v>
+        <v>1198.44</v>
       </c>
       <c r="S22" s="1">
-        <v>-124.569000</v>
+        <v>-124.569</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>51904.351278</v>
+        <v>51904.351278000002</v>
       </c>
       <c r="V22" s="1">
         <v>14.417875</v>
       </c>
       <c r="W22" s="1">
-        <v>1206.970000</v>
+        <v>1206.97</v>
       </c>
       <c r="X22" s="1">
-        <v>-105.480000</v>
+        <v>-105.48</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>51914.596176</v>
+        <v>51914.596175999999</v>
       </c>
       <c r="AA22" s="1">
         <v>14.420721</v>
       </c>
       <c r="AB22" s="1">
-        <v>1215.630000</v>
+        <v>1215.6300000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.915600</v>
+        <v>-89.915599999999998</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>51925.061266</v>
+        <v>51925.061265999997</v>
       </c>
       <c r="AF22" s="1">
-        <v>14.423628</v>
+        <v>14.423628000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1220.850000</v>
+        <v>1220.8499999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.923900</v>
+        <v>-85.923900000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>51935.303791</v>
+        <v>51935.303790999998</v>
       </c>
       <c r="AK22" s="1">
         <v>14.426473</v>
       </c>
       <c r="AL22" s="1">
-        <v>1228.330000</v>
+        <v>1228.33</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.708100</v>
+        <v>-89.708100000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>51945.939864</v>
@@ -5741,13 +6157,13 @@
         <v>14.429428</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1236.510000</v>
+        <v>1236.51</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.979000</v>
+        <v>-101.979</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>51956.722361</v>
@@ -5756,195 +6172,195 @@
         <v>14.432423</v>
       </c>
       <c r="AV22" s="1">
-        <v>1246.660000</v>
+        <v>1246.6600000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.628000</v>
+        <v>-121.628</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>51967.686456</v>
+        <v>51967.686456000003</v>
       </c>
       <c r="AZ22" s="1">
         <v>14.435468</v>
       </c>
       <c r="BA22" s="1">
-        <v>1255.190000</v>
+        <v>1255.19</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.368000</v>
+        <v>-139.36799999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>51978.655486</v>
+        <v>51978.655486000003</v>
       </c>
       <c r="BE22" s="1">
-        <v>14.438515</v>
+        <v>14.438515000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1295.800000</v>
+        <v>1295.8</v>
       </c>
       <c r="BG22" s="1">
-        <v>-222.229000</v>
+        <v>-222.22900000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>51989.818450</v>
+        <v>51989.818449999999</v>
       </c>
       <c r="BJ22" s="1">
         <v>14.441616</v>
       </c>
       <c r="BK22" s="1">
-        <v>1366.150000</v>
+        <v>1366.15</v>
       </c>
       <c r="BL22" s="1">
-        <v>-359.977000</v>
+        <v>-359.97699999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>52000.204178</v>
       </c>
       <c r="BO22" s="1">
-        <v>14.444501</v>
+        <v>14.444501000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1481.820000</v>
+        <v>1481.82</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-584.036000</v>
+        <v>-584.03599999999994</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>52010.757025</v>
+        <v>52010.757024999999</v>
       </c>
       <c r="BT22" s="1">
         <v>14.447433</v>
       </c>
       <c r="BU22" s="1">
-        <v>1614.910000</v>
+        <v>1614.91</v>
       </c>
       <c r="BV22" s="1">
-        <v>-836.328000</v>
+        <v>-836.32799999999997</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>52021.648222</v>
+        <v>52021.648222000003</v>
       </c>
       <c r="BY22" s="1">
-        <v>14.450458</v>
+        <v>14.450457999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1769.180000</v>
+        <v>1769.18</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1111.280000</v>
+        <v>-1111.28</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>52034.831346</v>
+        <v>52034.831345999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>14.454120</v>
+        <v>14.45412</v>
       </c>
       <c r="CE22" s="1">
-        <v>2190.630000</v>
+        <v>2190.63</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1776.410000</v>
+        <v>-1776.41</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>51862.726022</v>
+        <v>51862.726022000003</v>
       </c>
       <c r="B23" s="1">
-        <v>14.406313</v>
+        <v>14.406313000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1141.310000</v>
+        <v>1141.31</v>
       </c>
       <c r="D23" s="1">
-        <v>-234.785000</v>
+        <v>-234.785</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>51873.164858</v>
+        <v>51873.164857999996</v>
       </c>
       <c r="G23" s="1">
         <v>14.409212</v>
       </c>
       <c r="H23" s="1">
-        <v>1160.740000</v>
+        <v>1160.74</v>
       </c>
       <c r="I23" s="1">
-        <v>-200.465000</v>
+        <v>-200.465</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>51883.680506</v>
+        <v>51883.680505999997</v>
       </c>
       <c r="L23" s="1">
-        <v>14.412133</v>
+        <v>14.412133000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1189.630000</v>
+        <v>1189.6300000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-144.101000</v>
+        <v>-144.101</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>51894.242840</v>
+        <v>51894.242839999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>14.415067</v>
+        <v>14.415067000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1198.400000</v>
+        <v>1198.4000000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-124.528000</v>
+        <v>-124.52800000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>51905.008514</v>
+        <v>51905.008514000001</v>
       </c>
       <c r="V23" s="1">
         <v>14.418058</v>
       </c>
       <c r="W23" s="1">
-        <v>1207.170000</v>
+        <v>1207.17</v>
       </c>
       <c r="X23" s="1">
-        <v>-105.656000</v>
+        <v>-105.65600000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>51915.253373</v>
@@ -5953,13 +6369,13 @@
         <v>14.420904</v>
       </c>
       <c r="AB23" s="1">
-        <v>1215.620000</v>
+        <v>1215.6199999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.855600</v>
+        <v>-89.855599999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>51925.442659</v>
@@ -5968,195 +6384,195 @@
         <v>14.423734</v>
       </c>
       <c r="AG23" s="1">
-        <v>1220.830000</v>
+        <v>1220.83</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.885100</v>
+        <v>-85.885099999999994</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>51935.694965</v>
+        <v>51935.694965000002</v>
       </c>
       <c r="AK23" s="1">
         <v>14.426582</v>
       </c>
       <c r="AL23" s="1">
-        <v>1228.340000</v>
+        <v>1228.3399999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.731500</v>
+        <v>-89.731499999999997</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>51946.322246</v>
+        <v>51946.322246000003</v>
       </c>
       <c r="AP23" s="1">
         <v>14.429534</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1236.530000</v>
+        <v>1236.53</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.966000</v>
+        <v>-101.96599999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>51957.086920</v>
+        <v>51957.086920000002</v>
       </c>
       <c r="AU23" s="1">
-        <v>14.432524</v>
+        <v>14.432524000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1246.660000</v>
+        <v>1246.6600000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.623000</v>
+        <v>-121.623</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>51968.046521</v>
+        <v>51968.046520999997</v>
       </c>
       <c r="AZ23" s="1">
         <v>14.435568</v>
       </c>
       <c r="BA23" s="1">
-        <v>1255.210000</v>
+        <v>1255.21</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.351000</v>
+        <v>-139.351</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>51979.080027</v>
+        <v>51979.080027000004</v>
       </c>
       <c r="BE23" s="1">
-        <v>14.438633</v>
+        <v>14.438632999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1295.780000</v>
+        <v>1295.78</v>
       </c>
       <c r="BG23" s="1">
-        <v>-222.235000</v>
+        <v>-222.23500000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>51989.997468</v>
+        <v>51989.997468000001</v>
       </c>
       <c r="BJ23" s="1">
         <v>14.441666</v>
       </c>
       <c r="BK23" s="1">
-        <v>1366.160000</v>
+        <v>1366.16</v>
       </c>
       <c r="BL23" s="1">
-        <v>-359.980000</v>
+        <v>-359.98</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>52000.600944</v>
+        <v>52000.600943999998</v>
       </c>
       <c r="BO23" s="1">
         <v>14.444611</v>
       </c>
       <c r="BP23" s="1">
-        <v>1481.810000</v>
+        <v>1481.81</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-584.032000</v>
+        <v>-584.03200000000004</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>52011.169201</v>
+        <v>52011.169200999997</v>
       </c>
       <c r="BT23" s="1">
         <v>14.447547</v>
       </c>
       <c r="BU23" s="1">
-        <v>1614.890000</v>
+        <v>1614.89</v>
       </c>
       <c r="BV23" s="1">
-        <v>-836.364000</v>
+        <v>-836.36400000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>52022.095075</v>
+        <v>52022.095074999997</v>
       </c>
       <c r="BY23" s="1">
-        <v>14.450582</v>
+        <v>14.450582000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1769.150000</v>
+        <v>1769.15</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1111.250000</v>
+        <v>-1111.25</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>52035.367061</v>
+        <v>52035.367060999997</v>
       </c>
       <c r="CD23" s="1">
         <v>14.454269</v>
       </c>
       <c r="CE23" s="1">
-        <v>2193.230000</v>
+        <v>2193.23</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1775.860000</v>
+        <v>-1775.86</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>51863.068260</v>
+        <v>51863.06826</v>
       </c>
       <c r="B24" s="1">
-        <v>14.406408</v>
+        <v>14.406408000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1141.330000</v>
+        <v>1141.33</v>
       </c>
       <c r="D24" s="1">
-        <v>-234.998000</v>
+        <v>-234.99799999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>51873.508091</v>
+        <v>51873.508091000003</v>
       </c>
       <c r="G24" s="1">
-        <v>14.409308</v>
+        <v>14.409307999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1161.140000</v>
+        <v>1161.1400000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-200.753000</v>
+        <v>-200.75299999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>51884.024264</v>
@@ -6165,73 +6581,73 @@
         <v>14.412229</v>
       </c>
       <c r="M24" s="1">
-        <v>1189.690000</v>
+        <v>1189.69</v>
       </c>
       <c r="N24" s="1">
-        <v>-144.050000</v>
+        <v>-144.05000000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>51894.899052</v>
+        <v>51894.899052000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>14.415250</v>
+        <v>14.41525</v>
       </c>
       <c r="R24" s="1">
-        <v>1198.440000</v>
+        <v>1198.44</v>
       </c>
       <c r="S24" s="1">
-        <v>-124.503000</v>
+        <v>-124.503</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>51905.382498</v>
+        <v>51905.382497999999</v>
       </c>
       <c r="V24" s="1">
-        <v>14.418162</v>
+        <v>14.418162000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1207.050000</v>
+        <v>1207.05</v>
       </c>
       <c r="X24" s="1">
-        <v>-105.530000</v>
+        <v>-105.53</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>51915.642241</v>
+        <v>51915.642241000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>14.421012</v>
+        <v>14.421011999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1215.660000</v>
+        <v>1215.6600000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.922100</v>
+        <v>-89.9221</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>51925.786417</v>
+        <v>51925.786417000003</v>
       </c>
       <c r="AF24" s="1">
-        <v>14.423830</v>
+        <v>14.423830000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1220.900000</v>
+        <v>1220.9000000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.921700</v>
+        <v>-85.921700000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>51936.043652</v>
@@ -6240,467 +6656,467 @@
         <v>14.426679</v>
       </c>
       <c r="AL24" s="1">
-        <v>1228.320000</v>
+        <v>1228.32</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.717300</v>
+        <v>-89.717299999999994</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>51946.683830</v>
+        <v>51946.683830000002</v>
       </c>
       <c r="AP24" s="1">
         <v>14.429634</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1236.490000</v>
+        <v>1236.49</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.986000</v>
+        <v>-101.986</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>51957.508023</v>
+        <v>51957.508023000002</v>
       </c>
       <c r="AU24" s="1">
         <v>14.432641</v>
       </c>
       <c r="AV24" s="1">
-        <v>1246.640000</v>
+        <v>1246.6400000000001</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.646000</v>
+        <v>-121.646</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>51968.461179</v>
+        <v>51968.461178999998</v>
       </c>
       <c r="AZ24" s="1">
         <v>14.435684</v>
       </c>
       <c r="BA24" s="1">
-        <v>1255.240000</v>
+        <v>1255.24</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.397000</v>
+        <v>-139.39699999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>51979.378124</v>
+        <v>51979.378124000003</v>
       </c>
       <c r="BE24" s="1">
-        <v>14.438716</v>
+        <v>14.438715999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1295.820000</v>
+        <v>1295.82</v>
       </c>
       <c r="BG24" s="1">
-        <v>-222.236000</v>
+        <v>-222.23599999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>51990.384844</v>
       </c>
       <c r="BJ24" s="1">
-        <v>14.441774</v>
+        <v>14.441774000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1366.170000</v>
+        <v>1366.17</v>
       </c>
       <c r="BL24" s="1">
-        <v>-359.970000</v>
+        <v>-359.97</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>52001.023535</v>
       </c>
       <c r="BO24" s="1">
-        <v>14.444729</v>
+        <v>14.444729000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1481.820000</v>
+        <v>1481.82</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-584.041000</v>
+        <v>-584.04100000000005</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>52011.586832</v>
+        <v>52011.586832000001</v>
       </c>
       <c r="BT24" s="1">
         <v>14.447663</v>
       </c>
       <c r="BU24" s="1">
-        <v>1614.940000</v>
+        <v>1614.94</v>
       </c>
       <c r="BV24" s="1">
-        <v>-836.571000</v>
+        <v>-836.57100000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>52022.544947</v>
+        <v>52022.544947000002</v>
       </c>
       <c r="BY24" s="1">
         <v>14.450707</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1769.230000</v>
+        <v>1769.23</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1111.400000</v>
+        <v>-1111.4000000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>52035.909184</v>
+        <v>52035.909183999996</v>
       </c>
       <c r="CD24" s="1">
         <v>14.454419</v>
       </c>
       <c r="CE24" s="1">
-        <v>2190.430000</v>
+        <v>2190.4299999999998</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1775.420000</v>
+        <v>-1775.42</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>51863.408020</v>
+        <v>51863.408020000003</v>
       </c>
       <c r="B25" s="1">
         <v>14.406502</v>
       </c>
       <c r="C25" s="1">
-        <v>1141.650000</v>
+        <v>1141.6500000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-234.714000</v>
+        <v>-234.714</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>51874.168726</v>
+        <v>51874.168726000004</v>
       </c>
       <c r="G25" s="1">
-        <v>14.409491</v>
+        <v>14.409490999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1161.090000</v>
+        <v>1161.0899999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-200.969000</v>
+        <v>-200.96899999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>51884.687403</v>
+        <v>51884.687403000004</v>
       </c>
       <c r="L25" s="1">
-        <v>14.412413</v>
+        <v>14.412413000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1189.570000</v>
+        <v>1189.57</v>
       </c>
       <c r="N25" s="1">
-        <v>-144.107000</v>
+        <v>-144.107</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>51895.289370</v>
+        <v>51895.289369999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>14.415358</v>
+        <v>14.415357999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1198.530000</v>
+        <v>1198.53</v>
       </c>
       <c r="S25" s="1">
-        <v>-124.515000</v>
+        <v>-124.515</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>51905.725729</v>
+        <v>51905.725728999998</v>
       </c>
       <c r="V25" s="1">
-        <v>14.418257</v>
+        <v>14.418257000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1206.990000</v>
+        <v>1206.99</v>
       </c>
       <c r="X25" s="1">
-        <v>-105.608000</v>
+        <v>-105.608</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>51915.992383</v>
+        <v>51915.992382999997</v>
       </c>
       <c r="AA25" s="1">
         <v>14.421109</v>
       </c>
       <c r="AB25" s="1">
-        <v>1215.670000</v>
+        <v>1215.67</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.875500</v>
+        <v>-89.875500000000002</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>51926.137778</v>
+        <v>51926.137777999997</v>
       </c>
       <c r="AF25" s="1">
-        <v>14.423927</v>
+        <v>14.423927000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1220.860000</v>
+        <v>1220.8599999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.842200</v>
+        <v>-85.842200000000005</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>51936.394325</v>
+        <v>51936.394325000001</v>
       </c>
       <c r="AK25" s="1">
         <v>14.426776</v>
       </c>
       <c r="AL25" s="1">
-        <v>1228.360000</v>
+        <v>1228.3599999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.713100</v>
+        <v>-89.713099999999997</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>51947.101957</v>
+        <v>51947.101956999999</v>
       </c>
       <c r="AP25" s="1">
         <v>14.429751</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1236.500000</v>
+        <v>1236.5</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.979000</v>
+        <v>-101.979</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>51957.818521</v>
+        <v>51957.818521000001</v>
       </c>
       <c r="AU25" s="1">
         <v>14.432727</v>
       </c>
       <c r="AV25" s="1">
-        <v>1246.690000</v>
+        <v>1246.69</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.683000</v>
+        <v>-121.68300000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>51968.764265</v>
+        <v>51968.764264999998</v>
       </c>
       <c r="AZ25" s="1">
-        <v>14.435768</v>
+        <v>14.435767999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1255.200000</v>
+        <v>1255.2</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.369000</v>
+        <v>-139.369</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>51979.738747</v>
+        <v>51979.738747000003</v>
       </c>
       <c r="BE25" s="1">
-        <v>14.438816</v>
+        <v>14.438815999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1295.770000</v>
+        <v>1295.77</v>
       </c>
       <c r="BG25" s="1">
-        <v>-222.242000</v>
+        <v>-222.24199999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>51990.758830</v>
+        <v>51990.758829999999</v>
       </c>
       <c r="BJ25" s="1">
         <v>14.441877</v>
       </c>
       <c r="BK25" s="1">
-        <v>1366.210000</v>
+        <v>1366.21</v>
       </c>
       <c r="BL25" s="1">
-        <v>-359.952000</v>
+        <v>-359.952</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>52001.422851</v>
+        <v>52001.422851000003</v>
       </c>
       <c r="BO25" s="1">
-        <v>14.444840</v>
+        <v>14.444839999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1481.770000</v>
+        <v>1481.77</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-584.065000</v>
+        <v>-584.06500000000005</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>52012.021823</v>
+        <v>52012.021823000003</v>
       </c>
       <c r="BT25" s="1">
         <v>14.447784</v>
       </c>
       <c r="BU25" s="1">
-        <v>1614.780000</v>
+        <v>1614.78</v>
       </c>
       <c r="BV25" s="1">
-        <v>-836.565000</v>
+        <v>-836.56500000000005</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>52023.025073</v>
+        <v>52023.025072999997</v>
       </c>
       <c r="BY25" s="1">
-        <v>14.450840</v>
+        <v>14.450839999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1769.350000</v>
+        <v>1769.35</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1111.290000</v>
+        <v>-1111.29</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>52036.450287</v>
       </c>
       <c r="CD25" s="1">
-        <v>14.454570</v>
+        <v>14.45457</v>
       </c>
       <c r="CE25" s="1">
-        <v>2192.500000</v>
+        <v>2192.5</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1776.800000</v>
+        <v>-1776.8</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>51864.062777</v>
+        <v>51864.062776999999</v>
       </c>
       <c r="B26" s="1">
         <v>14.406684</v>
       </c>
       <c r="C26" s="1">
-        <v>1141.230000</v>
+        <v>1141.23</v>
       </c>
       <c r="D26" s="1">
-        <v>-235.137000</v>
+        <v>-235.137</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>51874.544198</v>
+        <v>51874.544198000003</v>
       </c>
       <c r="G26" s="1">
-        <v>14.409596</v>
+        <v>14.409596000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1161.390000</v>
+        <v>1161.3900000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-200.747000</v>
+        <v>-200.74700000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>51885.064343</v>
+        <v>51885.064342999998</v>
       </c>
       <c r="L26" s="1">
         <v>14.412518</v>
       </c>
       <c r="M26" s="1">
-        <v>1189.320000</v>
+        <v>1189.32</v>
       </c>
       <c r="N26" s="1">
-        <v>-144.096000</v>
+        <v>-144.096</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>51895.638093</v>
+        <v>51895.638093000001</v>
       </c>
       <c r="Q26" s="1">
         <v>14.415455</v>
       </c>
       <c r="R26" s="1">
-        <v>1198.570000</v>
+        <v>1198.57</v>
       </c>
       <c r="S26" s="1">
-        <v>-124.534000</v>
+        <v>-124.53400000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>51906.069916</v>
@@ -6709,58 +7125,58 @@
         <v>14.418353</v>
       </c>
       <c r="W26" s="1">
-        <v>1206.980000</v>
+        <v>1206.98</v>
       </c>
       <c r="X26" s="1">
-        <v>-105.555000</v>
+        <v>-105.55500000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>51916.339582</v>
+        <v>51916.339582000001</v>
       </c>
       <c r="AA26" s="1">
         <v>14.421205</v>
       </c>
       <c r="AB26" s="1">
-        <v>1215.680000</v>
+        <v>1215.68</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.997000</v>
+        <v>-89.997</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>51926.560642</v>
+        <v>51926.560641999997</v>
       </c>
       <c r="AF26" s="1">
         <v>14.424045</v>
       </c>
       <c r="AG26" s="1">
-        <v>1220.830000</v>
+        <v>1220.83</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.894300</v>
+        <v>-85.894300000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>51936.825844</v>
+        <v>51936.825843999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>14.426896</v>
+        <v>14.426895999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1228.320000</v>
+        <v>1228.32</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.720700</v>
+        <v>-89.720699999999994</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>51947.402533</v>
@@ -6769,58 +7185,58 @@
         <v>14.429834</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1236.490000</v>
+        <v>1236.49</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.961000</v>
+        <v>-101.961</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>51958.184077</v>
+        <v>51958.184076999998</v>
       </c>
       <c r="AU26" s="1">
         <v>14.432829</v>
       </c>
       <c r="AV26" s="1">
-        <v>1246.620000</v>
+        <v>1246.6199999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.635000</v>
+        <v>-121.63500000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>51969.123834</v>
+        <v>51969.123833999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>14.435868</v>
+        <v>14.435867999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1255.200000</v>
+        <v>1255.2</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.374000</v>
+        <v>-139.374</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>51980.099571</v>
+        <v>51980.099570999999</v>
       </c>
       <c r="BE26" s="1">
         <v>14.438917</v>
       </c>
       <c r="BF26" s="1">
-        <v>1295.780000</v>
+        <v>1295.78</v>
       </c>
       <c r="BG26" s="1">
-        <v>-222.218000</v>
+        <v>-222.21799999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>51991.508811</v>
@@ -6829,75 +7245,76 @@
         <v>14.442086</v>
       </c>
       <c r="BK26" s="1">
-        <v>1366.170000</v>
+        <v>1366.17</v>
       </c>
       <c r="BL26" s="1">
-        <v>-359.926000</v>
+        <v>-359.92599999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>52001.836510</v>
+        <v>52001.836510000001</v>
       </c>
       <c r="BO26" s="1">
         <v>14.444955</v>
       </c>
       <c r="BP26" s="1">
-        <v>1481.820000</v>
+        <v>1481.82</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-584.041000</v>
+        <v>-584.04100000000005</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>52012.450398</v>
+        <v>52012.450398000001</v>
       </c>
       <c r="BT26" s="1">
         <v>14.447903</v>
       </c>
       <c r="BU26" s="1">
-        <v>1614.780000</v>
+        <v>1614.78</v>
       </c>
       <c r="BV26" s="1">
-        <v>-836.615000</v>
+        <v>-836.61500000000001</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>52023.382225</v>
+        <v>52023.382225000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>14.450940</v>
+        <v>14.450939999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1769.120000</v>
+        <v>1769.12</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1111.420000</v>
+        <v>-1111.42</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>52036.991951</v>
+        <v>52036.991951000004</v>
       </c>
       <c r="CD26" s="1">
-        <v>14.454720</v>
+        <v>14.45472</v>
       </c>
       <c r="CE26" s="1">
-        <v>2191.180000</v>
+        <v>2191.1799999999998</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1774.600000</v>
+        <v>-1774.6</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>